--- a/checkwork/11、12月.xlsx
+++ b/checkwork/11、12月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\checkwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77955230-6ED9-4F5B-A025-BAE2387375EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7E63A-849F-4064-9AB6-A89A621B3B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="1950" windowWidth="21225" windowHeight="10545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="297">
   <si>
     <t>2021 年 11 月 份 考 勤 汇 总 表</t>
   </si>
@@ -924,21 +924,30 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>财政局、残联、工信委、环保局、水利局、应急管理局。</t>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>财政局:100.00%、残联:100.00%、工信委:100.00%、环保局:100.00%、应急管理局:100.00%。</t>
+  </si>
+  <si>
+    <t>农机局:96.00%、水利局:96.00%、司法局:96.00%、卫健局:96.44%、文广新局:98.00%、林业局:98.67%。</t>
+  </si>
+  <si>
+    <t>医保中心:90.50%、发政委:92.00%、公安出入境:92.00%、不动产:92.24%、交通局运管局:92.27%、税务局:92.83%、市场监管局:93.67%、商务局:94.00%、婚检优生:94.13%。</t>
+  </si>
+  <si>
+    <t>民政局:77.43%、城管局:80.00%、住建局:82.80%、自然资源局:86.00%、人社局:87.20%、环城户籍:88.00%、农业局:88.00%、教体局:89.71%。</t>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>不动产、发政委、公安出入境、婚检优生、交通局运管局、林业局、农机局、商务局、市场监管局、税务局、司法局、卫健局、文广新局。</t>
-  </si>
-  <si>
-    <t>城管局、环城户籍、教体局、民政局、农业局、人社局、医保中心、住建局、自然资源局。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1051,8 +1060,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1071,8 +1095,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1119,13 +1148,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,6 +1335,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,9 +1365,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1590,7 +1647,7 @@
   <dimension ref="A1:AF279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A253" sqref="A253:AF257"/>
     </sheetView>
   </sheetViews>
@@ -1615,39 +1672,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
     </row>
     <row r="2" spans="1:31" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
@@ -1726,10 +1783,10 @@
       <c r="AB2" s="30">
         <v>30</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AC2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="57"/>
+      <c r="AD2" s="59"/>
       <c r="AE2" s="33"/>
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2508,10 +2565,10 @@
       <c r="X20" s="22"/>
       <c r="Y20" s="22"/>
       <c r="Z20" s="22"/>
-      <c r="AA20" s="58" t="s">
+      <c r="AA20" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB20" s="58"/>
+      <c r="AB20" s="60"/>
       <c r="AC20" s="25">
         <f>SUM(AC3:AC19)</f>
         <v>28</v>
@@ -2586,10 +2643,10 @@
       <c r="X22" s="22"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
-      <c r="AA22" s="58" t="s">
+      <c r="AA22" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB22" s="58"/>
+      <c r="AB22" s="60"/>
       <c r="AC22" s="25">
         <v>2</v>
       </c>
@@ -2661,10 +2718,10 @@
       <c r="X24" s="22"/>
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
-      <c r="AA24" s="58" t="s">
+      <c r="AA24" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB24" s="58"/>
+      <c r="AB24" s="60"/>
       <c r="AC24" s="25">
         <v>1</v>
       </c>
@@ -2779,10 +2836,10 @@
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
       <c r="Z27" s="22"/>
-      <c r="AA27" s="58" t="s">
+      <c r="AA27" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB27" s="58"/>
+      <c r="AB27" s="60"/>
       <c r="AC27" s="25">
         <v>6</v>
       </c>
@@ -2854,10 +2911,10 @@
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
-      <c r="AA29" s="58" t="s">
+      <c r="AA29" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB29" s="58"/>
+      <c r="AB29" s="60"/>
       <c r="AC29" s="25">
         <v>1</v>
       </c>
@@ -2927,10 +2984,10 @@
       <c r="X31" s="22"/>
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
-      <c r="AA31" s="58" t="s">
+      <c r="AA31" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB31" s="58"/>
+      <c r="AB31" s="60"/>
       <c r="AC31" s="25">
         <v>0</v>
       </c>
@@ -3107,10 +3164,10 @@
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
-      <c r="AA36" s="58" t="s">
+      <c r="AA36" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB36" s="58"/>
+      <c r="AB36" s="60"/>
       <c r="AC36" s="25">
         <v>1</v>
       </c>
@@ -3186,10 +3243,10 @@
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
-      <c r="AA38" s="58" t="s">
+      <c r="AA38" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB38" s="58"/>
+      <c r="AB38" s="60"/>
       <c r="AC38" s="25">
         <v>3</v>
       </c>
@@ -3259,10 +3316,10 @@
       <c r="X40" s="22"/>
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
-      <c r="AA40" s="58" t="s">
+      <c r="AA40" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB40" s="58"/>
+      <c r="AB40" s="60"/>
       <c r="AC40" s="25">
         <v>0</v>
       </c>
@@ -3336,10 +3393,10 @@
       <c r="X42" s="22"/>
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
-      <c r="AA42" s="58" t="s">
+      <c r="AA42" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB42" s="58"/>
+      <c r="AB42" s="60"/>
       <c r="AC42" s="25">
         <v>2</v>
       </c>
@@ -3494,10 +3551,10 @@
       <c r="X46" s="22"/>
       <c r="Y46" s="22"/>
       <c r="Z46" s="22"/>
-      <c r="AA46" s="58" t="s">
+      <c r="AA46" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB46" s="58"/>
+      <c r="AB46" s="60"/>
       <c r="AC46" s="25">
         <v>4</v>
       </c>
@@ -3664,10 +3721,10 @@
       <c r="X50" s="22"/>
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
-      <c r="AA50" s="58" t="s">
+      <c r="AA50" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB50" s="58"/>
+      <c r="AB50" s="60"/>
       <c r="AC50" s="25">
         <v>11</v>
       </c>
@@ -4227,10 +4284,10 @@
       <c r="X66" s="22"/>
       <c r="Y66" s="22"/>
       <c r="Z66" s="22"/>
-      <c r="AA66" s="58" t="s">
+      <c r="AA66" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB66" s="58"/>
+      <c r="AB66" s="60"/>
       <c r="AC66" s="25">
         <v>8</v>
       </c>
@@ -4867,10 +4924,10 @@
       <c r="X82" s="22"/>
       <c r="Y82" s="22"/>
       <c r="Z82" s="22"/>
-      <c r="AA82" s="58" t="s">
+      <c r="AA82" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB82" s="58"/>
+      <c r="AB82" s="60"/>
       <c r="AC82" s="25">
         <f>SUM(AC67:AC81)</f>
         <v>25</v>
@@ -5170,10 +5227,10 @@
       <c r="X90" s="22"/>
       <c r="Y90" s="22"/>
       <c r="Z90" s="22"/>
-      <c r="AA90" s="58" t="s">
+      <c r="AA90" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB90" s="58"/>
+      <c r="AB90" s="60"/>
       <c r="AC90" s="25">
         <v>4</v>
       </c>
@@ -5316,10 +5373,10 @@
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
       <c r="Z94" s="22"/>
-      <c r="AA94" s="58" t="s">
+      <c r="AA94" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB94" s="58"/>
+      <c r="AB94" s="60"/>
       <c r="AC94" s="25">
         <v>2</v>
       </c>
@@ -5948,10 +6005,10 @@
       <c r="X109" s="22"/>
       <c r="Y109" s="22"/>
       <c r="Z109" s="22"/>
-      <c r="AA109" s="58" t="s">
+      <c r="AA109" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB109" s="58"/>
+      <c r="AB109" s="60"/>
       <c r="AC109" s="25">
         <f>SUM(AC95:AC108)</f>
         <v>37</v>
@@ -6217,10 +6274,10 @@
       <c r="X116" s="22"/>
       <c r="Y116" s="22"/>
       <c r="Z116" s="22"/>
-      <c r="AA116" s="58" t="s">
+      <c r="AA116" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB116" s="58"/>
+      <c r="AB116" s="60"/>
       <c r="AC116" s="25">
         <v>9</v>
       </c>
@@ -8342,10 +8399,10 @@
       <c r="X167" s="22"/>
       <c r="Y167" s="22"/>
       <c r="Z167" s="22"/>
-      <c r="AA167" s="58" t="s">
+      <c r="AA167" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB167" s="58"/>
+      <c r="AB167" s="60"/>
       <c r="AC167" s="25">
         <f>SUM(AC117:AC166)</f>
         <v>132</v>
@@ -8798,10 +8855,10 @@
       <c r="X179" s="22"/>
       <c r="Y179" s="22"/>
       <c r="Z179" s="22"/>
-      <c r="AA179" s="58" t="s">
+      <c r="AA179" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB179" s="58"/>
+      <c r="AB179" s="60"/>
       <c r="AC179" s="25">
         <v>15</v>
       </c>
@@ -9674,10 +9731,10 @@
       <c r="X203" s="22"/>
       <c r="Y203" s="22"/>
       <c r="Z203" s="22"/>
-      <c r="AA203" s="58" t="s">
+      <c r="AA203" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB203" s="58"/>
+      <c r="AB203" s="60"/>
       <c r="AC203" s="25">
         <f>SUM(AC180:AC202)</f>
         <v>22</v>
@@ -9787,10 +9844,10 @@
       <c r="X206" s="22"/>
       <c r="Y206" s="22"/>
       <c r="Z206" s="22"/>
-      <c r="AA206" s="58" t="s">
+      <c r="AA206" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB206" s="58"/>
+      <c r="AB206" s="60"/>
       <c r="AC206" s="25">
         <v>3</v>
       </c>
@@ -10161,10 +10218,10 @@
       <c r="X216" s="22"/>
       <c r="Y216" s="22"/>
       <c r="Z216" s="22"/>
-      <c r="AA216" s="58" t="s">
+      <c r="AA216" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB216" s="58"/>
+      <c r="AB216" s="60"/>
       <c r="AC216" s="25">
         <v>11</v>
       </c>
@@ -10257,36 +10314,36 @@
       <c r="AE218" s="38"/>
     </row>
     <row r="219" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="59"/>
-      <c r="B219" s="59"/>
-      <c r="C219" s="59"/>
-      <c r="D219" s="59"/>
-      <c r="E219" s="59"/>
-      <c r="F219" s="59"/>
-      <c r="G219" s="59"/>
-      <c r="H219" s="59"/>
-      <c r="I219" s="59"/>
-      <c r="J219" s="59"/>
-      <c r="K219" s="59"/>
-      <c r="L219" s="59"/>
-      <c r="M219" s="59"/>
-      <c r="N219" s="59"/>
-      <c r="O219" s="59"/>
-      <c r="P219" s="59"/>
-      <c r="Q219" s="59"/>
-      <c r="R219" s="59"/>
-      <c r="S219" s="59"/>
-      <c r="T219" s="59"/>
-      <c r="U219" s="59"/>
-      <c r="V219" s="59"/>
-      <c r="W219" s="59"/>
-      <c r="X219" s="59"/>
-      <c r="Y219" s="59"/>
+      <c r="A219" s="61"/>
+      <c r="B219" s="61"/>
+      <c r="C219" s="61"/>
+      <c r="D219" s="61"/>
+      <c r="E219" s="61"/>
+      <c r="F219" s="61"/>
+      <c r="G219" s="61"/>
+      <c r="H219" s="61"/>
+      <c r="I219" s="61"/>
+      <c r="J219" s="61"/>
+      <c r="K219" s="61"/>
+      <c r="L219" s="61"/>
+      <c r="M219" s="61"/>
+      <c r="N219" s="61"/>
+      <c r="O219" s="61"/>
+      <c r="P219" s="61"/>
+      <c r="Q219" s="61"/>
+      <c r="R219" s="61"/>
+      <c r="S219" s="61"/>
+      <c r="T219" s="61"/>
+      <c r="U219" s="61"/>
+      <c r="V219" s="61"/>
+      <c r="W219" s="61"/>
+      <c r="X219" s="61"/>
+      <c r="Y219" s="61"/>
       <c r="Z219" s="22"/>
-      <c r="AA219" s="58" t="s">
+      <c r="AA219" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB219" s="58"/>
+      <c r="AB219" s="60"/>
       <c r="AC219" s="25">
         <v>4</v>
       </c>
@@ -11006,10 +11063,10 @@
       <c r="X236" s="22"/>
       <c r="Y236" s="22"/>
       <c r="Z236" s="22"/>
-      <c r="AA236" s="58" t="s">
+      <c r="AA236" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB236" s="58"/>
+      <c r="AB236" s="60"/>
       <c r="AC236" s="25">
         <f>SUM(AC220:AC235)</f>
         <v>46</v>
@@ -11454,10 +11511,10 @@
       <c r="X247" s="22"/>
       <c r="Y247" s="22"/>
       <c r="Z247" s="22"/>
-      <c r="AA247" s="58" t="s">
+      <c r="AA247" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB247" s="58"/>
+      <c r="AB247" s="60"/>
       <c r="AC247" s="25">
         <f>SUM(AC238:AC246)</f>
         <v>23</v>
@@ -11612,10 +11669,10 @@
       <c r="X251" s="22"/>
       <c r="Y251" s="22"/>
       <c r="Z251" s="22"/>
-      <c r="AA251" s="58" t="s">
+      <c r="AA251" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="AB251" s="58"/>
+      <c r="AB251" s="60"/>
       <c r="AC251" s="41">
         <v>3</v>
       </c>
@@ -11647,151 +11704,151 @@
       <c r="A254" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B254" s="60" t="s">
+      <c r="B254" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="C254" s="60"/>
-      <c r="D254" s="60"/>
-      <c r="E254" s="60"/>
-      <c r="F254" s="60"/>
-      <c r="G254" s="60"/>
-      <c r="H254" s="60"/>
-      <c r="I254" s="60"/>
-      <c r="J254" s="60"/>
-      <c r="K254" s="60"/>
-      <c r="L254" s="60"/>
-      <c r="M254" s="60"/>
-      <c r="N254" s="60"/>
-      <c r="O254" s="60"/>
-      <c r="P254" s="60"/>
-      <c r="Q254" s="60"/>
-      <c r="R254" s="60"/>
-      <c r="S254" s="60"/>
-      <c r="T254" s="60"/>
-      <c r="U254" s="60"/>
-      <c r="V254" s="60"/>
-      <c r="W254" s="60"/>
-      <c r="X254" s="60"/>
-      <c r="Y254" s="60"/>
-      <c r="Z254" s="60"/>
-      <c r="AA254" s="60"/>
-      <c r="AB254" s="60"/>
-      <c r="AC254" s="60"/>
-      <c r="AD254" s="60"/>
-      <c r="AE254" s="60"/>
-      <c r="AF254" s="60"/>
+      <c r="C254" s="62"/>
+      <c r="D254" s="62"/>
+      <c r="E254" s="62"/>
+      <c r="F254" s="62"/>
+      <c r="G254" s="62"/>
+      <c r="H254" s="62"/>
+      <c r="I254" s="62"/>
+      <c r="J254" s="62"/>
+      <c r="K254" s="62"/>
+      <c r="L254" s="62"/>
+      <c r="M254" s="62"/>
+      <c r="N254" s="62"/>
+      <c r="O254" s="62"/>
+      <c r="P254" s="62"/>
+      <c r="Q254" s="62"/>
+      <c r="R254" s="62"/>
+      <c r="S254" s="62"/>
+      <c r="T254" s="62"/>
+      <c r="U254" s="62"/>
+      <c r="V254" s="62"/>
+      <c r="W254" s="62"/>
+      <c r="X254" s="62"/>
+      <c r="Y254" s="62"/>
+      <c r="Z254" s="62"/>
+      <c r="AA254" s="62"/>
+      <c r="AB254" s="62"/>
+      <c r="AC254" s="62"/>
+      <c r="AD254" s="62"/>
+      <c r="AE254" s="62"/>
+      <c r="AF254" s="62"/>
     </row>
     <row r="255" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="61" t="s">
+      <c r="A255" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="B255" s="60" t="s">
+      <c r="B255" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="C255" s="60"/>
-      <c r="D255" s="60"/>
-      <c r="E255" s="60"/>
-      <c r="F255" s="60"/>
-      <c r="G255" s="60"/>
-      <c r="H255" s="60"/>
-      <c r="I255" s="60"/>
-      <c r="J255" s="60"/>
-      <c r="K255" s="60"/>
-      <c r="L255" s="60"/>
-      <c r="M255" s="60"/>
-      <c r="N255" s="60"/>
-      <c r="O255" s="60"/>
-      <c r="P255" s="60"/>
-      <c r="Q255" s="60"/>
-      <c r="R255" s="60"/>
-      <c r="S255" s="60"/>
-      <c r="T255" s="60"/>
-      <c r="U255" s="60"/>
-      <c r="V255" s="60"/>
-      <c r="W255" s="60"/>
-      <c r="X255" s="60"/>
-      <c r="Y255" s="60"/>
-      <c r="Z255" s="60"/>
-      <c r="AA255" s="60"/>
-      <c r="AB255" s="60"/>
-      <c r="AC255" s="60"/>
-      <c r="AD255" s="60"/>
-      <c r="AE255" s="60"/>
-      <c r="AF255" s="60"/>
+      <c r="C255" s="62"/>
+      <c r="D255" s="62"/>
+      <c r="E255" s="62"/>
+      <c r="F255" s="62"/>
+      <c r="G255" s="62"/>
+      <c r="H255" s="62"/>
+      <c r="I255" s="62"/>
+      <c r="J255" s="62"/>
+      <c r="K255" s="62"/>
+      <c r="L255" s="62"/>
+      <c r="M255" s="62"/>
+      <c r="N255" s="62"/>
+      <c r="O255" s="62"/>
+      <c r="P255" s="62"/>
+      <c r="Q255" s="62"/>
+      <c r="R255" s="62"/>
+      <c r="S255" s="62"/>
+      <c r="T255" s="62"/>
+      <c r="U255" s="62"/>
+      <c r="V255" s="62"/>
+      <c r="W255" s="62"/>
+      <c r="X255" s="62"/>
+      <c r="Y255" s="62"/>
+      <c r="Z255" s="62"/>
+      <c r="AA255" s="62"/>
+      <c r="AB255" s="62"/>
+      <c r="AC255" s="62"/>
+      <c r="AD255" s="62"/>
+      <c r="AE255" s="62"/>
+      <c r="AF255" s="62"/>
     </row>
     <row r="256" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="61"/>
-      <c r="B256" s="60" t="s">
+      <c r="A256" s="63"/>
+      <c r="B256" s="62" t="s">
         <v>279</v>
       </c>
-      <c r="C256" s="60"/>
-      <c r="D256" s="60"/>
-      <c r="E256" s="60"/>
-      <c r="F256" s="60"/>
-      <c r="G256" s="60"/>
-      <c r="H256" s="60"/>
-      <c r="I256" s="60"/>
-      <c r="J256" s="60"/>
-      <c r="K256" s="60"/>
-      <c r="L256" s="60"/>
-      <c r="M256" s="60"/>
-      <c r="N256" s="60"/>
-      <c r="O256" s="60"/>
-      <c r="P256" s="60"/>
-      <c r="Q256" s="60"/>
-      <c r="R256" s="60"/>
-      <c r="S256" s="60"/>
-      <c r="T256" s="60"/>
-      <c r="U256" s="60"/>
-      <c r="V256" s="60"/>
-      <c r="W256" s="60"/>
-      <c r="X256" s="60"/>
-      <c r="Y256" s="60"/>
-      <c r="Z256" s="60"/>
-      <c r="AA256" s="60"/>
-      <c r="AB256" s="60"/>
-      <c r="AC256" s="60"/>
-      <c r="AD256" s="60"/>
-      <c r="AE256" s="60"/>
-      <c r="AF256" s="60"/>
+      <c r="C256" s="62"/>
+      <c r="D256" s="62"/>
+      <c r="E256" s="62"/>
+      <c r="F256" s="62"/>
+      <c r="G256" s="62"/>
+      <c r="H256" s="62"/>
+      <c r="I256" s="62"/>
+      <c r="J256" s="62"/>
+      <c r="K256" s="62"/>
+      <c r="L256" s="62"/>
+      <c r="M256" s="62"/>
+      <c r="N256" s="62"/>
+      <c r="O256" s="62"/>
+      <c r="P256" s="62"/>
+      <c r="Q256" s="62"/>
+      <c r="R256" s="62"/>
+      <c r="S256" s="62"/>
+      <c r="T256" s="62"/>
+      <c r="U256" s="62"/>
+      <c r="V256" s="62"/>
+      <c r="W256" s="62"/>
+      <c r="X256" s="62"/>
+      <c r="Y256" s="62"/>
+      <c r="Z256" s="62"/>
+      <c r="AA256" s="62"/>
+      <c r="AB256" s="62"/>
+      <c r="AC256" s="62"/>
+      <c r="AD256" s="62"/>
+      <c r="AE256" s="62"/>
+      <c r="AF256" s="62"/>
     </row>
     <row r="257" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B257" s="60" t="s">
+      <c r="B257" s="62" t="s">
         <v>281</v>
       </c>
-      <c r="C257" s="60"/>
-      <c r="D257" s="60"/>
-      <c r="E257" s="60"/>
-      <c r="F257" s="60"/>
-      <c r="G257" s="60"/>
-      <c r="H257" s="60"/>
-      <c r="I257" s="60"/>
-      <c r="J257" s="60"/>
-      <c r="K257" s="60"/>
-      <c r="L257" s="60"/>
-      <c r="M257" s="60"/>
-      <c r="N257" s="60"/>
-      <c r="O257" s="60"/>
-      <c r="P257" s="60"/>
-      <c r="Q257" s="60"/>
-      <c r="R257" s="60"/>
-      <c r="S257" s="60"/>
-      <c r="T257" s="60"/>
-      <c r="U257" s="60"/>
-      <c r="V257" s="60"/>
-      <c r="W257" s="60"/>
-      <c r="X257" s="60"/>
-      <c r="Y257" s="60"/>
-      <c r="Z257" s="60"/>
-      <c r="AA257" s="60"/>
-      <c r="AB257" s="60"/>
-      <c r="AC257" s="60"/>
-      <c r="AD257" s="60"/>
-      <c r="AE257" s="60"/>
-      <c r="AF257" s="60"/>
+      <c r="C257" s="62"/>
+      <c r="D257" s="62"/>
+      <c r="E257" s="62"/>
+      <c r="F257" s="62"/>
+      <c r="G257" s="62"/>
+      <c r="H257" s="62"/>
+      <c r="I257" s="62"/>
+      <c r="J257" s="62"/>
+      <c r="K257" s="62"/>
+      <c r="L257" s="62"/>
+      <c r="M257" s="62"/>
+      <c r="N257" s="62"/>
+      <c r="O257" s="62"/>
+      <c r="P257" s="62"/>
+      <c r="Q257" s="62"/>
+      <c r="R257" s="62"/>
+      <c r="S257" s="62"/>
+      <c r="T257" s="62"/>
+      <c r="U257" s="62"/>
+      <c r="V257" s="62"/>
+      <c r="W257" s="62"/>
+      <c r="X257" s="62"/>
+      <c r="Y257" s="62"/>
+      <c r="Z257" s="62"/>
+      <c r="AA257" s="62"/>
+      <c r="AB257" s="62"/>
+      <c r="AC257" s="62"/>
+      <c r="AD257" s="62"/>
+      <c r="AE257" s="62"/>
+      <c r="AF257" s="62"/>
     </row>
     <row r="258" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C258" s="23"/>
@@ -12077,11 +12134,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF260"/>
+  <dimension ref="A1:AH260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
@@ -12098,7 +12155,9 @@
     <col min="24" max="24" width="4.125" customWidth="1"/>
     <col min="25" max="29" width="4.125" style="3" customWidth="1"/>
     <col min="30" max="30" width="13.25" style="3" customWidth="1"/>
-    <col min="31" max="58" width="9" style="4"/>
+    <col min="31" max="31" width="9" style="4"/>
+    <col min="32" max="32" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="58" width="9" style="4"/>
     <col min="59" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
@@ -12664,8 +12723,8 @@
       <c r="AE12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF12" s="15" t="s">
-        <v>11</v>
+      <c r="AF12" s="64" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
@@ -12902,8 +12961,8 @@
       <c r="AE19" t="s">
         <v>290</v>
       </c>
-      <c r="AF19">
-        <v>0.9156010230179028</v>
+      <c r="AF19" s="51">
+        <v>0.9223529411764706</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.15">
@@ -12974,7 +13033,7 @@
       <c r="AE21" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF21" s="4">
+      <c r="AF21" s="54">
         <v>1</v>
       </c>
     </row>
@@ -13046,7 +13105,7 @@
       <c r="AE23" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF23" s="4">
+      <c r="AF23" s="54">
         <v>1</v>
       </c>
     </row>
@@ -13148,8 +13207,8 @@
       <c r="AE26" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF26" s="4">
-        <v>0.78260869565217395</v>
+      <c r="AF26" s="54">
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.15">
@@ -13224,8 +13283,8 @@
       <c r="AE28" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF28" s="4">
-        <v>0.91304347826086951</v>
+      <c r="AF28" s="54">
+        <v>0.92</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.15">
@@ -13296,7 +13355,7 @@
       <c r="AE30" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF30" s="4">
+      <c r="AF30" s="54">
         <v>1</v>
       </c>
     </row>
@@ -13448,8 +13507,8 @@
       <c r="AE34" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF34" s="4">
-        <v>0.91304347826086951</v>
+      <c r="AF34" s="54">
+        <v>0.92</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.15">
@@ -13520,7 +13579,7 @@
       <c r="AE36" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF36" s="4">
+      <c r="AF36" s="54">
         <v>1</v>
       </c>
     </row>
@@ -13678,8 +13737,8 @@
       <c r="AE40" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF40" s="4">
-        <v>0.86956521739130432</v>
+      <c r="AF40" s="54">
+        <v>0.88</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.15">
@@ -14270,8 +14329,8 @@
       <c r="AE56" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF56" s="4">
-        <v>0.93623188405797098</v>
+      <c r="AF56" s="54">
+        <v>0.94133333333333336</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.15">
@@ -14876,8 +14935,8 @@
       <c r="AE72" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF72" s="4">
-        <v>0.91594202898550725</v>
+      <c r="AF72" s="54">
+        <v>0.92266666666666663</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.15">
@@ -15188,8 +15247,8 @@
       <c r="AE80" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF80" s="4">
-        <v>0.88819875776397517</v>
+      <c r="AF80" s="54">
+        <v>0.89714285714285713</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.15">
@@ -15330,8 +15389,8 @@
       <c r="AE84" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF84" s="4">
-        <v>0.98550724637681164</v>
+      <c r="AF84" s="54">
+        <v>0.98666666666666669</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.15">
@@ -16002,8 +16061,8 @@
       <c r="AE99" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF99" s="4">
-        <v>0.75465838509316774</v>
+      <c r="AF99" s="54">
+        <v>0.77428571428571424</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.15">
@@ -16076,8 +16135,8 @@
       <c r="AE101" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF101" s="4">
-        <v>0.95652173913043481</v>
+      <c r="AF101" s="54">
+        <v>0.96</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.15">
@@ -16314,8 +16373,8 @@
       <c r="AE107" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF107" s="4">
-        <v>0.86956521739130432</v>
+      <c r="AF107" s="54">
+        <v>0.88</v>
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.15">
@@ -18372,8 +18431,8 @@
       <c r="AE158" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF158" s="4">
-        <v>0.86086956521739133</v>
+      <c r="AF158" s="54">
+        <v>0.872</v>
       </c>
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.15">
@@ -18484,8 +18543,8 @@
       <c r="AE161" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF161" s="4">
-        <v>0.93478260869565222</v>
+      <c r="AF161" s="54">
+        <v>0.94</v>
       </c>
     </row>
     <row r="162" spans="1:32" x14ac:dyDescent="0.15">
@@ -18968,8 +19027,8 @@
       <c r="AE174" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF174" s="4">
-        <v>0.9311594202898551</v>
+      <c r="AF174" s="54">
+        <v>0.93666666666666665</v>
       </c>
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.15">
@@ -18991,7 +19050,9 @@
       <c r="N175" s="9"/>
       <c r="O175" s="9"/>
       <c r="P175" s="9"/>
-      <c r="Q175" s="9"/>
+      <c r="Q175" s="9">
+        <v>0</v>
+      </c>
       <c r="S175" s="9"/>
       <c r="T175" s="9"/>
       <c r="U175" s="9"/>
@@ -19003,7 +19064,7 @@
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
       <c r="AD175" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.15">
@@ -19035,13 +19096,13 @@
       </c>
       <c r="AC176" s="9"/>
       <c r="AD176" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE176" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF176" s="4">
-        <v>1</v>
+      <c r="AF176" s="54">
+        <v>0.96</v>
       </c>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.15">
@@ -19980,8 +20041,8 @@
       <c r="AE201" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF201" s="4">
-        <v>0.92210144927536231</v>
+      <c r="AF201" s="54">
+        <v>0.92833333333333334</v>
       </c>
     </row>
     <row r="202" spans="1:32" x14ac:dyDescent="0.15">
@@ -20090,8 +20151,8 @@
       <c r="AE204" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF204" s="4">
-        <v>0.95652173913043481</v>
+      <c r="AF204" s="54">
+        <v>0.96</v>
       </c>
     </row>
     <row r="205" spans="1:32" x14ac:dyDescent="0.15">
@@ -20450,8 +20511,8 @@
       <c r="AE214" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF214" s="4">
-        <v>0.96135265700483097</v>
+      <c r="AF214" s="54">
+        <v>0.96444444444444444</v>
       </c>
     </row>
     <row r="215" spans="1:32" x14ac:dyDescent="0.15">
@@ -20558,8 +20619,8 @@
       <c r="AE217" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF217" s="4">
-        <v>0.97826086956521741</v>
+      <c r="AF217" s="54">
+        <v>0.98</v>
       </c>
     </row>
     <row r="218" spans="1:32" x14ac:dyDescent="0.15">
@@ -21216,8 +21277,8 @@
       <c r="AE234" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF234" s="4">
-        <v>0.89673913043478259</v>
+      <c r="AF234" s="54">
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="235" spans="1:32" x14ac:dyDescent="0.15">
@@ -21288,7 +21349,7 @@
       <c r="AE236" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF236" s="4">
+      <c r="AF236" s="54">
         <v>1</v>
       </c>
     </row>
@@ -21464,7 +21525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A241" s="8" t="s">
         <v>259</v>
       </c>
@@ -21510,7 +21571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A242" s="8" t="s">
         <v>259</v>
       </c>
@@ -21546,7 +21607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A243" s="8" t="s">
         <v>259</v>
       </c>
@@ -21588,7 +21649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A244" s="8" t="s">
         <v>259</v>
       </c>
@@ -21634,7 +21695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A245" s="8" t="s">
         <v>259</v>
       </c>
@@ -21672,7 +21733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A246" s="8" t="s">
         <v>259</v>
       </c>
@@ -21718,7 +21779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="9"/>
@@ -21752,11 +21813,11 @@
       <c r="AE247" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AF247" s="4">
-        <v>0.81304347826086953</v>
-      </c>
-    </row>
-    <row r="248" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AF247" s="54">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A248" s="8" t="s">
         <v>270</v>
       </c>
@@ -21802,7 +21863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A249" s="8" t="s">
         <v>270</v>
       </c>
@@ -21840,7 +21901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A250" s="8" t="s">
         <v>270</v>
       </c>
@@ -21874,7 +21935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A251" s="8" t="s">
         <v>270</v>
       </c>
@@ -21916,7 +21977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A252" s="8" t="s">
         <v>270</v>
       </c>
@@ -21964,7 +22025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A253" s="8" t="s">
         <v>270</v>
       </c>
@@ -22002,21 +22063,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:33" x14ac:dyDescent="0.15">
       <c r="AB254" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AD254" s="3">
         <v>21</v>
       </c>
       <c r="AE254" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="AF254" s="4">
-        <v>0.84782608695652173</v>
-      </c>
-    </row>
-    <row r="256" spans="1:32" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="AF254" s="54">
+        <v>0.86</v>
+      </c>
+      <c r="AG254" s="55"/>
+    </row>
+    <row r="256" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A256" s="26" t="s">
         <v>274</v>
       </c>
@@ -22052,153 +22114,156 @@
       <c r="AE256" s="27"/>
       <c r="AF256" s="28"/>
     </row>
-    <row r="257" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A257" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="B257" s="60" t="s">
+      <c r="B257" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="C257" s="62"/>
+      <c r="D257" s="62"/>
+      <c r="E257" s="62"/>
+      <c r="F257" s="62"/>
+      <c r="G257" s="62"/>
+      <c r="H257" s="62"/>
+      <c r="I257" s="62"/>
+      <c r="J257" s="62"/>
+      <c r="K257" s="62"/>
+      <c r="L257" s="62"/>
+      <c r="M257" s="62"/>
+      <c r="N257" s="62"/>
+      <c r="O257" s="62"/>
+      <c r="P257" s="62"/>
+      <c r="Q257" s="62"/>
+      <c r="R257" s="62"/>
+      <c r="S257" s="62"/>
+      <c r="T257" s="62"/>
+      <c r="U257" s="62"/>
+      <c r="V257" s="62"/>
+      <c r="W257" s="62"/>
+      <c r="X257" s="62"/>
+      <c r="Y257" s="62"/>
+      <c r="Z257" s="62"/>
+      <c r="AA257" s="62"/>
+      <c r="AB257" s="62"/>
+      <c r="AC257" s="62"/>
+      <c r="AD257" s="62"/>
+      <c r="AE257" s="62"/>
+      <c r="AF257" s="62"/>
+      <c r="AH257"/>
+    </row>
+    <row r="258" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A258" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="B258" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="C258" s="62"/>
+      <c r="D258" s="62"/>
+      <c r="E258" s="62"/>
+      <c r="F258" s="62"/>
+      <c r="G258" s="62"/>
+      <c r="H258" s="62"/>
+      <c r="I258" s="62"/>
+      <c r="J258" s="62"/>
+      <c r="K258" s="62"/>
+      <c r="L258" s="62"/>
+      <c r="M258" s="62"/>
+      <c r="N258" s="62"/>
+      <c r="O258" s="62"/>
+      <c r="P258" s="62"/>
+      <c r="Q258" s="62"/>
+      <c r="R258" s="62"/>
+      <c r="S258" s="62"/>
+      <c r="T258" s="62"/>
+      <c r="U258" s="62"/>
+      <c r="V258" s="62"/>
+      <c r="W258" s="62"/>
+      <c r="X258" s="62"/>
+      <c r="Y258" s="62"/>
+      <c r="Z258" s="62"/>
+      <c r="AA258" s="62"/>
+      <c r="AB258" s="62"/>
+      <c r="AC258" s="62"/>
+      <c r="AD258" s="62"/>
+      <c r="AE258" s="62"/>
+      <c r="AF258" s="62"/>
+    </row>
+    <row r="259" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="A259" s="63"/>
+      <c r="B259" s="62" t="s">
         <v>293</v>
       </c>
-      <c r="C257" s="60"/>
-      <c r="D257" s="60"/>
-      <c r="E257" s="60"/>
-      <c r="F257" s="60"/>
-      <c r="G257" s="60"/>
-      <c r="H257" s="60"/>
-      <c r="I257" s="60"/>
-      <c r="J257" s="60"/>
-      <c r="K257" s="60"/>
-      <c r="L257" s="60"/>
-      <c r="M257" s="60"/>
-      <c r="N257" s="60"/>
-      <c r="O257" s="60"/>
-      <c r="P257" s="60"/>
-      <c r="Q257" s="60"/>
-      <c r="R257" s="60"/>
-      <c r="S257" s="60"/>
-      <c r="T257" s="60"/>
-      <c r="U257" s="60"/>
-      <c r="V257" s="60"/>
-      <c r="W257" s="60"/>
-      <c r="X257" s="60"/>
-      <c r="Y257" s="60"/>
-      <c r="Z257" s="60"/>
-      <c r="AA257" s="60"/>
-      <c r="AB257" s="60"/>
-      <c r="AC257" s="60"/>
-      <c r="AD257" s="60"/>
-      <c r="AE257" s="60"/>
-      <c r="AF257" s="60"/>
-    </row>
-    <row r="258" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A258" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="B258" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="C258" s="60"/>
-      <c r="D258" s="60"/>
-      <c r="E258" s="60"/>
-      <c r="F258" s="60"/>
-      <c r="G258" s="60"/>
-      <c r="H258" s="60"/>
-      <c r="I258" s="60"/>
-      <c r="J258" s="60"/>
-      <c r="K258" s="60"/>
-      <c r="L258" s="60"/>
-      <c r="M258" s="60"/>
-      <c r="N258" s="60"/>
-      <c r="O258" s="60"/>
-      <c r="P258" s="60"/>
-      <c r="Q258" s="60"/>
-      <c r="R258" s="60"/>
-      <c r="S258" s="60"/>
-      <c r="T258" s="60"/>
-      <c r="U258" s="60"/>
-      <c r="V258" s="60"/>
-      <c r="W258" s="60"/>
-      <c r="X258" s="60"/>
-      <c r="Y258" s="60"/>
-      <c r="Z258" s="60"/>
-      <c r="AA258" s="60"/>
-      <c r="AB258" s="60"/>
-      <c r="AC258" s="60"/>
-      <c r="AD258" s="60"/>
-      <c r="AE258" s="60"/>
-      <c r="AF258" s="60"/>
-    </row>
-    <row r="259" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="A259" s="61"/>
-      <c r="B259" s="60"/>
-      <c r="C259" s="60"/>
-      <c r="D259" s="60"/>
-      <c r="E259" s="60"/>
-      <c r="F259" s="60"/>
-      <c r="G259" s="60"/>
-      <c r="H259" s="60"/>
-      <c r="I259" s="60"/>
-      <c r="J259" s="60"/>
-      <c r="K259" s="60"/>
-      <c r="L259" s="60"/>
-      <c r="M259" s="60"/>
-      <c r="N259" s="60"/>
-      <c r="O259" s="60"/>
-      <c r="P259" s="60"/>
-      <c r="Q259" s="60"/>
-      <c r="R259" s="60"/>
-      <c r="S259" s="60"/>
-      <c r="T259" s="60"/>
-      <c r="U259" s="60"/>
-      <c r="V259" s="60"/>
-      <c r="W259" s="60"/>
-      <c r="X259" s="60"/>
-      <c r="Y259" s="60"/>
-      <c r="Z259" s="60"/>
-      <c r="AA259" s="60"/>
-      <c r="AB259" s="60"/>
-      <c r="AC259" s="60"/>
-      <c r="AD259" s="60"/>
-      <c r="AE259" s="60"/>
-      <c r="AF259" s="60"/>
-    </row>
-    <row r="260" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="C259" s="62"/>
+      <c r="D259" s="62"/>
+      <c r="E259" s="62"/>
+      <c r="F259" s="62"/>
+      <c r="G259" s="62"/>
+      <c r="H259" s="62"/>
+      <c r="I259" s="62"/>
+      <c r="J259" s="62"/>
+      <c r="K259" s="62"/>
+      <c r="L259" s="62"/>
+      <c r="M259" s="62"/>
+      <c r="N259" s="62"/>
+      <c r="O259" s="62"/>
+      <c r="P259" s="62"/>
+      <c r="Q259" s="62"/>
+      <c r="R259" s="62"/>
+      <c r="S259" s="62"/>
+      <c r="T259" s="62"/>
+      <c r="U259" s="62"/>
+      <c r="V259" s="62"/>
+      <c r="W259" s="62"/>
+      <c r="X259" s="62"/>
+      <c r="Y259" s="62"/>
+      <c r="Z259" s="62"/>
+      <c r="AA259" s="62"/>
+      <c r="AB259" s="62"/>
+      <c r="AC259" s="62"/>
+      <c r="AD259" s="62"/>
+      <c r="AE259" s="62"/>
+      <c r="AF259" s="62"/>
+    </row>
+    <row r="260" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A260" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B260" s="60" t="s">
-        <v>291</v>
-      </c>
-      <c r="C260" s="60"/>
-      <c r="D260" s="60"/>
-      <c r="E260" s="60"/>
-      <c r="F260" s="60"/>
-      <c r="G260" s="60"/>
-      <c r="H260" s="60"/>
-      <c r="I260" s="60"/>
-      <c r="J260" s="60"/>
-      <c r="K260" s="60"/>
-      <c r="L260" s="60"/>
-      <c r="M260" s="60"/>
-      <c r="N260" s="60"/>
-      <c r="O260" s="60"/>
-      <c r="P260" s="60"/>
-      <c r="Q260" s="60"/>
-      <c r="R260" s="60"/>
-      <c r="S260" s="60"/>
-      <c r="T260" s="60"/>
-      <c r="U260" s="60"/>
-      <c r="V260" s="60"/>
-      <c r="W260" s="60"/>
-      <c r="X260" s="60"/>
-      <c r="Y260" s="60"/>
-      <c r="Z260" s="60"/>
-      <c r="AA260" s="60"/>
-      <c r="AB260" s="60"/>
-      <c r="AC260" s="60"/>
-      <c r="AD260" s="60"/>
-      <c r="AE260" s="60"/>
-      <c r="AF260" s="60"/>
+      <c r="B260" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="C260" s="62"/>
+      <c r="D260" s="62"/>
+      <c r="E260" s="62"/>
+      <c r="F260" s="62"/>
+      <c r="G260" s="62"/>
+      <c r="H260" s="62"/>
+      <c r="I260" s="62"/>
+      <c r="J260" s="62"/>
+      <c r="K260" s="62"/>
+      <c r="L260" s="62"/>
+      <c r="M260" s="62"/>
+      <c r="N260" s="62"/>
+      <c r="O260" s="62"/>
+      <c r="P260" s="62"/>
+      <c r="Q260" s="62"/>
+      <c r="R260" s="62"/>
+      <c r="S260" s="62"/>
+      <c r="T260" s="62"/>
+      <c r="U260" s="62"/>
+      <c r="V260" s="62"/>
+      <c r="W260" s="62"/>
+      <c r="X260" s="62"/>
+      <c r="Y260" s="62"/>
+      <c r="Z260" s="62"/>
+      <c r="AA260" s="62"/>
+      <c r="AB260" s="62"/>
+      <c r="AC260" s="62"/>
+      <c r="AD260" s="62"/>
+      <c r="AE260" s="62"/>
+      <c r="AF260" s="62"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG249">

--- a/checkwork/11、12月.xlsx
+++ b/checkwork/11、12月.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\checkwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7E63A-849F-4064-9AB6-A89A621B3B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532ECD4D-1E34-44BF-BBEB-3109E9F4DEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="3735" windowWidth="21240" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="296">
   <si>
     <t>2021 年 11 月 份 考 勤 汇 总 表</t>
   </si>
@@ -922,9 +922,6 @@
   <si>
     <t>出勤率：</t>
     <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
   </si>
   <si>
     <t>财政局:100.00%、残联:100.00%、工信委:100.00%、环保局:100.00%、应急管理局:100.00%。</t>
@@ -1341,6 +1338,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1352,21 +1364,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1672,39 +1669,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
     </row>
     <row r="2" spans="1:31" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
@@ -1783,10 +1780,10 @@
       <c r="AB2" s="30">
         <v>30</v>
       </c>
-      <c r="AC2" s="58" t="s">
+      <c r="AC2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="59"/>
+      <c r="AD2" s="64"/>
       <c r="AE2" s="33"/>
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10314,31 +10311,31 @@
       <c r="AE218" s="38"/>
     </row>
     <row r="219" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="61"/>
-      <c r="B219" s="61"/>
-      <c r="C219" s="61"/>
-      <c r="D219" s="61"/>
-      <c r="E219" s="61"/>
-      <c r="F219" s="61"/>
-      <c r="G219" s="61"/>
-      <c r="H219" s="61"/>
-      <c r="I219" s="61"/>
-      <c r="J219" s="61"/>
-      <c r="K219" s="61"/>
-      <c r="L219" s="61"/>
-      <c r="M219" s="61"/>
-      <c r="N219" s="61"/>
-      <c r="O219" s="61"/>
-      <c r="P219" s="61"/>
-      <c r="Q219" s="61"/>
-      <c r="R219" s="61"/>
-      <c r="S219" s="61"/>
-      <c r="T219" s="61"/>
-      <c r="U219" s="61"/>
-      <c r="V219" s="61"/>
-      <c r="W219" s="61"/>
-      <c r="X219" s="61"/>
-      <c r="Y219" s="61"/>
+      <c r="A219" s="59"/>
+      <c r="B219" s="59"/>
+      <c r="C219" s="59"/>
+      <c r="D219" s="59"/>
+      <c r="E219" s="59"/>
+      <c r="F219" s="59"/>
+      <c r="G219" s="59"/>
+      <c r="H219" s="59"/>
+      <c r="I219" s="59"/>
+      <c r="J219" s="59"/>
+      <c r="K219" s="59"/>
+      <c r="L219" s="59"/>
+      <c r="M219" s="59"/>
+      <c r="N219" s="59"/>
+      <c r="O219" s="59"/>
+      <c r="P219" s="59"/>
+      <c r="Q219" s="59"/>
+      <c r="R219" s="59"/>
+      <c r="S219" s="59"/>
+      <c r="T219" s="59"/>
+      <c r="U219" s="59"/>
+      <c r="V219" s="59"/>
+      <c r="W219" s="59"/>
+      <c r="X219" s="59"/>
+      <c r="Y219" s="59"/>
       <c r="Z219" s="22"/>
       <c r="AA219" s="60" t="s">
         <v>40</v>
@@ -11704,151 +11701,151 @@
       <c r="A254" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B254" s="62" t="s">
+      <c r="B254" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="C254" s="62"/>
-      <c r="D254" s="62"/>
-      <c r="E254" s="62"/>
-      <c r="F254" s="62"/>
-      <c r="G254" s="62"/>
-      <c r="H254" s="62"/>
-      <c r="I254" s="62"/>
-      <c r="J254" s="62"/>
-      <c r="K254" s="62"/>
-      <c r="L254" s="62"/>
-      <c r="M254" s="62"/>
-      <c r="N254" s="62"/>
-      <c r="O254" s="62"/>
-      <c r="P254" s="62"/>
-      <c r="Q254" s="62"/>
-      <c r="R254" s="62"/>
-      <c r="S254" s="62"/>
-      <c r="T254" s="62"/>
-      <c r="U254" s="62"/>
-      <c r="V254" s="62"/>
-      <c r="W254" s="62"/>
-      <c r="X254" s="62"/>
-      <c r="Y254" s="62"/>
-      <c r="Z254" s="62"/>
-      <c r="AA254" s="62"/>
-      <c r="AB254" s="62"/>
-      <c r="AC254" s="62"/>
-      <c r="AD254" s="62"/>
-      <c r="AE254" s="62"/>
-      <c r="AF254" s="62"/>
+      <c r="C254" s="57"/>
+      <c r="D254" s="57"/>
+      <c r="E254" s="57"/>
+      <c r="F254" s="57"/>
+      <c r="G254" s="57"/>
+      <c r="H254" s="57"/>
+      <c r="I254" s="57"/>
+      <c r="J254" s="57"/>
+      <c r="K254" s="57"/>
+      <c r="L254" s="57"/>
+      <c r="M254" s="57"/>
+      <c r="N254" s="57"/>
+      <c r="O254" s="57"/>
+      <c r="P254" s="57"/>
+      <c r="Q254" s="57"/>
+      <c r="R254" s="57"/>
+      <c r="S254" s="57"/>
+      <c r="T254" s="57"/>
+      <c r="U254" s="57"/>
+      <c r="V254" s="57"/>
+      <c r="W254" s="57"/>
+      <c r="X254" s="57"/>
+      <c r="Y254" s="57"/>
+      <c r="Z254" s="57"/>
+      <c r="AA254" s="57"/>
+      <c r="AB254" s="57"/>
+      <c r="AC254" s="57"/>
+      <c r="AD254" s="57"/>
+      <c r="AE254" s="57"/>
+      <c r="AF254" s="57"/>
     </row>
     <row r="255" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="63" t="s">
+      <c r="A255" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="B255" s="62" t="s">
+      <c r="B255" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="C255" s="62"/>
-      <c r="D255" s="62"/>
-      <c r="E255" s="62"/>
-      <c r="F255" s="62"/>
-      <c r="G255" s="62"/>
-      <c r="H255" s="62"/>
-      <c r="I255" s="62"/>
-      <c r="J255" s="62"/>
-      <c r="K255" s="62"/>
-      <c r="L255" s="62"/>
-      <c r="M255" s="62"/>
-      <c r="N255" s="62"/>
-      <c r="O255" s="62"/>
-      <c r="P255" s="62"/>
-      <c r="Q255" s="62"/>
-      <c r="R255" s="62"/>
-      <c r="S255" s="62"/>
-      <c r="T255" s="62"/>
-      <c r="U255" s="62"/>
-      <c r="V255" s="62"/>
-      <c r="W255" s="62"/>
-      <c r="X255" s="62"/>
-      <c r="Y255" s="62"/>
-      <c r="Z255" s="62"/>
-      <c r="AA255" s="62"/>
-      <c r="AB255" s="62"/>
-      <c r="AC255" s="62"/>
-      <c r="AD255" s="62"/>
-      <c r="AE255" s="62"/>
-      <c r="AF255" s="62"/>
+      <c r="C255" s="57"/>
+      <c r="D255" s="57"/>
+      <c r="E255" s="57"/>
+      <c r="F255" s="57"/>
+      <c r="G255" s="57"/>
+      <c r="H255" s="57"/>
+      <c r="I255" s="57"/>
+      <c r="J255" s="57"/>
+      <c r="K255" s="57"/>
+      <c r="L255" s="57"/>
+      <c r="M255" s="57"/>
+      <c r="N255" s="57"/>
+      <c r="O255" s="57"/>
+      <c r="P255" s="57"/>
+      <c r="Q255" s="57"/>
+      <c r="R255" s="57"/>
+      <c r="S255" s="57"/>
+      <c r="T255" s="57"/>
+      <c r="U255" s="57"/>
+      <c r="V255" s="57"/>
+      <c r="W255" s="57"/>
+      <c r="X255" s="57"/>
+      <c r="Y255" s="57"/>
+      <c r="Z255" s="57"/>
+      <c r="AA255" s="57"/>
+      <c r="AB255" s="57"/>
+      <c r="AC255" s="57"/>
+      <c r="AD255" s="57"/>
+      <c r="AE255" s="57"/>
+      <c r="AF255" s="57"/>
     </row>
     <row r="256" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="63"/>
-      <c r="B256" s="62" t="s">
+      <c r="A256" s="58"/>
+      <c r="B256" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="C256" s="62"/>
-      <c r="D256" s="62"/>
-      <c r="E256" s="62"/>
-      <c r="F256" s="62"/>
-      <c r="G256" s="62"/>
-      <c r="H256" s="62"/>
-      <c r="I256" s="62"/>
-      <c r="J256" s="62"/>
-      <c r="K256" s="62"/>
-      <c r="L256" s="62"/>
-      <c r="M256" s="62"/>
-      <c r="N256" s="62"/>
-      <c r="O256" s="62"/>
-      <c r="P256" s="62"/>
-      <c r="Q256" s="62"/>
-      <c r="R256" s="62"/>
-      <c r="S256" s="62"/>
-      <c r="T256" s="62"/>
-      <c r="U256" s="62"/>
-      <c r="V256" s="62"/>
-      <c r="W256" s="62"/>
-      <c r="X256" s="62"/>
-      <c r="Y256" s="62"/>
-      <c r="Z256" s="62"/>
-      <c r="AA256" s="62"/>
-      <c r="AB256" s="62"/>
-      <c r="AC256" s="62"/>
-      <c r="AD256" s="62"/>
-      <c r="AE256" s="62"/>
-      <c r="AF256" s="62"/>
+      <c r="C256" s="57"/>
+      <c r="D256" s="57"/>
+      <c r="E256" s="57"/>
+      <c r="F256" s="57"/>
+      <c r="G256" s="57"/>
+      <c r="H256" s="57"/>
+      <c r="I256" s="57"/>
+      <c r="J256" s="57"/>
+      <c r="K256" s="57"/>
+      <c r="L256" s="57"/>
+      <c r="M256" s="57"/>
+      <c r="N256" s="57"/>
+      <c r="O256" s="57"/>
+      <c r="P256" s="57"/>
+      <c r="Q256" s="57"/>
+      <c r="R256" s="57"/>
+      <c r="S256" s="57"/>
+      <c r="T256" s="57"/>
+      <c r="U256" s="57"/>
+      <c r="V256" s="57"/>
+      <c r="W256" s="57"/>
+      <c r="X256" s="57"/>
+      <c r="Y256" s="57"/>
+      <c r="Z256" s="57"/>
+      <c r="AA256" s="57"/>
+      <c r="AB256" s="57"/>
+      <c r="AC256" s="57"/>
+      <c r="AD256" s="57"/>
+      <c r="AE256" s="57"/>
+      <c r="AF256" s="57"/>
     </row>
     <row r="257" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B257" s="62" t="s">
+      <c r="B257" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="C257" s="62"/>
-      <c r="D257" s="62"/>
-      <c r="E257" s="62"/>
-      <c r="F257" s="62"/>
-      <c r="G257" s="62"/>
-      <c r="H257" s="62"/>
-      <c r="I257" s="62"/>
-      <c r="J257" s="62"/>
-      <c r="K257" s="62"/>
-      <c r="L257" s="62"/>
-      <c r="M257" s="62"/>
-      <c r="N257" s="62"/>
-      <c r="O257" s="62"/>
-      <c r="P257" s="62"/>
-      <c r="Q257" s="62"/>
-      <c r="R257" s="62"/>
-      <c r="S257" s="62"/>
-      <c r="T257" s="62"/>
-      <c r="U257" s="62"/>
-      <c r="V257" s="62"/>
-      <c r="W257" s="62"/>
-      <c r="X257" s="62"/>
-      <c r="Y257" s="62"/>
-      <c r="Z257" s="62"/>
-      <c r="AA257" s="62"/>
-      <c r="AB257" s="62"/>
-      <c r="AC257" s="62"/>
-      <c r="AD257" s="62"/>
-      <c r="AE257" s="62"/>
-      <c r="AF257" s="62"/>
+      <c r="C257" s="57"/>
+      <c r="D257" s="57"/>
+      <c r="E257" s="57"/>
+      <c r="F257" s="57"/>
+      <c r="G257" s="57"/>
+      <c r="H257" s="57"/>
+      <c r="I257" s="57"/>
+      <c r="J257" s="57"/>
+      <c r="K257" s="57"/>
+      <c r="L257" s="57"/>
+      <c r="M257" s="57"/>
+      <c r="N257" s="57"/>
+      <c r="O257" s="57"/>
+      <c r="P257" s="57"/>
+      <c r="Q257" s="57"/>
+      <c r="R257" s="57"/>
+      <c r="S257" s="57"/>
+      <c r="T257" s="57"/>
+      <c r="U257" s="57"/>
+      <c r="V257" s="57"/>
+      <c r="W257" s="57"/>
+      <c r="X257" s="57"/>
+      <c r="Y257" s="57"/>
+      <c r="Z257" s="57"/>
+      <c r="AA257" s="57"/>
+      <c r="AB257" s="57"/>
+      <c r="AC257" s="57"/>
+      <c r="AD257" s="57"/>
+      <c r="AE257" s="57"/>
+      <c r="AF257" s="57"/>
     </row>
     <row r="258" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C258" s="23"/>
@@ -12090,41 +12087,41 @@
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="35">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AA38:AB38"/>
+    <mergeCell ref="AA40:AB40"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AA46:AB46"/>
+    <mergeCell ref="AA50:AB50"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="AA82:AB82"/>
+    <mergeCell ref="AA90:AB90"/>
+    <mergeCell ref="AA94:AB94"/>
+    <mergeCell ref="AA109:AB109"/>
+    <mergeCell ref="AA116:AB116"/>
+    <mergeCell ref="AA167:AB167"/>
+    <mergeCell ref="AA179:AB179"/>
+    <mergeCell ref="AA203:AB203"/>
+    <mergeCell ref="AA206:AB206"/>
+    <mergeCell ref="AA216:AB216"/>
+    <mergeCell ref="A219:Y219"/>
+    <mergeCell ref="AA219:AB219"/>
+    <mergeCell ref="AA236:AB236"/>
+    <mergeCell ref="AA247:AB247"/>
+    <mergeCell ref="AA251:AB251"/>
     <mergeCell ref="B254:AF254"/>
     <mergeCell ref="B255:AF255"/>
     <mergeCell ref="B256:AF256"/>
     <mergeCell ref="B257:AF257"/>
     <mergeCell ref="A255:A256"/>
-    <mergeCell ref="A219:Y219"/>
-    <mergeCell ref="AA219:AB219"/>
-    <mergeCell ref="AA236:AB236"/>
-    <mergeCell ref="AA247:AB247"/>
-    <mergeCell ref="AA251:AB251"/>
-    <mergeCell ref="AA167:AB167"/>
-    <mergeCell ref="AA179:AB179"/>
-    <mergeCell ref="AA203:AB203"/>
-    <mergeCell ref="AA206:AB206"/>
-    <mergeCell ref="AA216:AB216"/>
-    <mergeCell ref="AA82:AB82"/>
-    <mergeCell ref="AA90:AB90"/>
-    <mergeCell ref="AA94:AB94"/>
-    <mergeCell ref="AA109:AB109"/>
-    <mergeCell ref="AA116:AB116"/>
-    <mergeCell ref="AA40:AB40"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AA46:AB46"/>
-    <mergeCell ref="AA50:AB50"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AA38:AB38"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AA24:AB24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75138888888888899" right="0.75138888888888899" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12137,8 +12134,8 @@
   <dimension ref="A1:AH260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF247" sqref="AF247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
@@ -12723,8 +12720,8 @@
       <c r="AE12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF12" s="64" t="s">
-        <v>296</v>
+      <c r="AF12" s="56" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
@@ -22065,7 +22062,7 @@
     </row>
     <row r="254" spans="1:33" x14ac:dyDescent="0.15">
       <c r="AB254" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AD254" s="3">
         <v>21</v>
@@ -22118,152 +22115,152 @@
       <c r="A257" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="B257" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="C257" s="62"/>
-      <c r="D257" s="62"/>
-      <c r="E257" s="62"/>
-      <c r="F257" s="62"/>
-      <c r="G257" s="62"/>
-      <c r="H257" s="62"/>
-      <c r="I257" s="62"/>
-      <c r="J257" s="62"/>
-      <c r="K257" s="62"/>
-      <c r="L257" s="62"/>
-      <c r="M257" s="62"/>
-      <c r="N257" s="62"/>
-      <c r="O257" s="62"/>
-      <c r="P257" s="62"/>
-      <c r="Q257" s="62"/>
-      <c r="R257" s="62"/>
-      <c r="S257" s="62"/>
-      <c r="T257" s="62"/>
-      <c r="U257" s="62"/>
-      <c r="V257" s="62"/>
-      <c r="W257" s="62"/>
-      <c r="X257" s="62"/>
-      <c r="Y257" s="62"/>
-      <c r="Z257" s="62"/>
-      <c r="AA257" s="62"/>
-      <c r="AB257" s="62"/>
-      <c r="AC257" s="62"/>
-      <c r="AD257" s="62"/>
-      <c r="AE257" s="62"/>
-      <c r="AF257" s="62"/>
+      <c r="B257" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="C257" s="57"/>
+      <c r="D257" s="57"/>
+      <c r="E257" s="57"/>
+      <c r="F257" s="57"/>
+      <c r="G257" s="57"/>
+      <c r="H257" s="57"/>
+      <c r="I257" s="57"/>
+      <c r="J257" s="57"/>
+      <c r="K257" s="57"/>
+      <c r="L257" s="57"/>
+      <c r="M257" s="57"/>
+      <c r="N257" s="57"/>
+      <c r="O257" s="57"/>
+      <c r="P257" s="57"/>
+      <c r="Q257" s="57"/>
+      <c r="R257" s="57"/>
+      <c r="S257" s="57"/>
+      <c r="T257" s="57"/>
+      <c r="U257" s="57"/>
+      <c r="V257" s="57"/>
+      <c r="W257" s="57"/>
+      <c r="X257" s="57"/>
+      <c r="Y257" s="57"/>
+      <c r="Z257" s="57"/>
+      <c r="AA257" s="57"/>
+      <c r="AB257" s="57"/>
+      <c r="AC257" s="57"/>
+      <c r="AD257" s="57"/>
+      <c r="AE257" s="57"/>
+      <c r="AF257" s="57"/>
       <c r="AH257"/>
     </row>
     <row r="258" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A258" s="63" t="s">
+      <c r="A258" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="B258" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="C258" s="62"/>
-      <c r="D258" s="62"/>
-      <c r="E258" s="62"/>
-      <c r="F258" s="62"/>
-      <c r="G258" s="62"/>
-      <c r="H258" s="62"/>
-      <c r="I258" s="62"/>
-      <c r="J258" s="62"/>
-      <c r="K258" s="62"/>
-      <c r="L258" s="62"/>
-      <c r="M258" s="62"/>
-      <c r="N258" s="62"/>
-      <c r="O258" s="62"/>
-      <c r="P258" s="62"/>
-      <c r="Q258" s="62"/>
-      <c r="R258" s="62"/>
-      <c r="S258" s="62"/>
-      <c r="T258" s="62"/>
-      <c r="U258" s="62"/>
-      <c r="V258" s="62"/>
-      <c r="W258" s="62"/>
-      <c r="X258" s="62"/>
-      <c r="Y258" s="62"/>
-      <c r="Z258" s="62"/>
-      <c r="AA258" s="62"/>
-      <c r="AB258" s="62"/>
-      <c r="AC258" s="62"/>
-      <c r="AD258" s="62"/>
-      <c r="AE258" s="62"/>
-      <c r="AF258" s="62"/>
+      <c r="B258" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="C258" s="57"/>
+      <c r="D258" s="57"/>
+      <c r="E258" s="57"/>
+      <c r="F258" s="57"/>
+      <c r="G258" s="57"/>
+      <c r="H258" s="57"/>
+      <c r="I258" s="57"/>
+      <c r="J258" s="57"/>
+      <c r="K258" s="57"/>
+      <c r="L258" s="57"/>
+      <c r="M258" s="57"/>
+      <c r="N258" s="57"/>
+      <c r="O258" s="57"/>
+      <c r="P258" s="57"/>
+      <c r="Q258" s="57"/>
+      <c r="R258" s="57"/>
+      <c r="S258" s="57"/>
+      <c r="T258" s="57"/>
+      <c r="U258" s="57"/>
+      <c r="V258" s="57"/>
+      <c r="W258" s="57"/>
+      <c r="X258" s="57"/>
+      <c r="Y258" s="57"/>
+      <c r="Z258" s="57"/>
+      <c r="AA258" s="57"/>
+      <c r="AB258" s="57"/>
+      <c r="AC258" s="57"/>
+      <c r="AD258" s="57"/>
+      <c r="AE258" s="57"/>
+      <c r="AF258" s="57"/>
     </row>
     <row r="259" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A259" s="63"/>
-      <c r="B259" s="62" t="s">
-        <v>293</v>
-      </c>
-      <c r="C259" s="62"/>
-      <c r="D259" s="62"/>
-      <c r="E259" s="62"/>
-      <c r="F259" s="62"/>
-      <c r="G259" s="62"/>
-      <c r="H259" s="62"/>
-      <c r="I259" s="62"/>
-      <c r="J259" s="62"/>
-      <c r="K259" s="62"/>
-      <c r="L259" s="62"/>
-      <c r="M259" s="62"/>
-      <c r="N259" s="62"/>
-      <c r="O259" s="62"/>
-      <c r="P259" s="62"/>
-      <c r="Q259" s="62"/>
-      <c r="R259" s="62"/>
-      <c r="S259" s="62"/>
-      <c r="T259" s="62"/>
-      <c r="U259" s="62"/>
-      <c r="V259" s="62"/>
-      <c r="W259" s="62"/>
-      <c r="X259" s="62"/>
-      <c r="Y259" s="62"/>
-      <c r="Z259" s="62"/>
-      <c r="AA259" s="62"/>
-      <c r="AB259" s="62"/>
-      <c r="AC259" s="62"/>
-      <c r="AD259" s="62"/>
-      <c r="AE259" s="62"/>
-      <c r="AF259" s="62"/>
+      <c r="A259" s="58"/>
+      <c r="B259" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="C259" s="57"/>
+      <c r="D259" s="57"/>
+      <c r="E259" s="57"/>
+      <c r="F259" s="57"/>
+      <c r="G259" s="57"/>
+      <c r="H259" s="57"/>
+      <c r="I259" s="57"/>
+      <c r="J259" s="57"/>
+      <c r="K259" s="57"/>
+      <c r="L259" s="57"/>
+      <c r="M259" s="57"/>
+      <c r="N259" s="57"/>
+      <c r="O259" s="57"/>
+      <c r="P259" s="57"/>
+      <c r="Q259" s="57"/>
+      <c r="R259" s="57"/>
+      <c r="S259" s="57"/>
+      <c r="T259" s="57"/>
+      <c r="U259" s="57"/>
+      <c r="V259" s="57"/>
+      <c r="W259" s="57"/>
+      <c r="X259" s="57"/>
+      <c r="Y259" s="57"/>
+      <c r="Z259" s="57"/>
+      <c r="AA259" s="57"/>
+      <c r="AB259" s="57"/>
+      <c r="AC259" s="57"/>
+      <c r="AD259" s="57"/>
+      <c r="AE259" s="57"/>
+      <c r="AF259" s="57"/>
     </row>
     <row r="260" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A260" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B260" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="C260" s="62"/>
-      <c r="D260" s="62"/>
-      <c r="E260" s="62"/>
-      <c r="F260" s="62"/>
-      <c r="G260" s="62"/>
-      <c r="H260" s="62"/>
-      <c r="I260" s="62"/>
-      <c r="J260" s="62"/>
-      <c r="K260" s="62"/>
-      <c r="L260" s="62"/>
-      <c r="M260" s="62"/>
-      <c r="N260" s="62"/>
-      <c r="O260" s="62"/>
-      <c r="P260" s="62"/>
-      <c r="Q260" s="62"/>
-      <c r="R260" s="62"/>
-      <c r="S260" s="62"/>
-      <c r="T260" s="62"/>
-      <c r="U260" s="62"/>
-      <c r="V260" s="62"/>
-      <c r="W260" s="62"/>
-      <c r="X260" s="62"/>
-      <c r="Y260" s="62"/>
-      <c r="Z260" s="62"/>
-      <c r="AA260" s="62"/>
-      <c r="AB260" s="62"/>
-      <c r="AC260" s="62"/>
-      <c r="AD260" s="62"/>
-      <c r="AE260" s="62"/>
-      <c r="AF260" s="62"/>
+      <c r="B260" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="C260" s="57"/>
+      <c r="D260" s="57"/>
+      <c r="E260" s="57"/>
+      <c r="F260" s="57"/>
+      <c r="G260" s="57"/>
+      <c r="H260" s="57"/>
+      <c r="I260" s="57"/>
+      <c r="J260" s="57"/>
+      <c r="K260" s="57"/>
+      <c r="L260" s="57"/>
+      <c r="M260" s="57"/>
+      <c r="N260" s="57"/>
+      <c r="O260" s="57"/>
+      <c r="P260" s="57"/>
+      <c r="Q260" s="57"/>
+      <c r="R260" s="57"/>
+      <c r="S260" s="57"/>
+      <c r="T260" s="57"/>
+      <c r="U260" s="57"/>
+      <c r="V260" s="57"/>
+      <c r="W260" s="57"/>
+      <c r="X260" s="57"/>
+      <c r="Y260" s="57"/>
+      <c r="Z260" s="57"/>
+      <c r="AA260" s="57"/>
+      <c r="AB260" s="57"/>
+      <c r="AC260" s="57"/>
+      <c r="AD260" s="57"/>
+      <c r="AE260" s="57"/>
+      <c r="AF260" s="57"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG249">

--- a/checkwork/11、12月.xlsx
+++ b/checkwork/11、12月.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\py_auto_study\checkwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532ECD4D-1E34-44BF-BBEB-3109E9F4DEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0142E0-5CD8-46AD-BCF2-4DA8B9C3CBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="3735" windowWidth="21240" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="297">
   <si>
     <t>2021 年 11 月 份 考 勤 汇 总 表</t>
   </si>
@@ -924,19 +924,24 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>财政局:100.00%、残联:100.00%、工信委:100.00%、环保局:100.00%、应急管理局:100.00%。</t>
-  </si>
-  <si>
-    <t>农机局:96.00%、水利局:96.00%、司法局:96.00%、卫健局:96.44%、文广新局:98.00%、林业局:98.67%。</t>
-  </si>
-  <si>
-    <t>医保中心:90.50%、发政委:92.00%、公安出入境:92.00%、不动产:92.24%、交通局运管局:92.27%、税务局:92.83%、市场监管局:93.67%、商务局:94.00%、婚检优生:94.13%。</t>
-  </si>
-  <si>
-    <t>民政局:77.43%、城管局:80.00%、住建局:82.80%、自然资源局:86.00%、人社局:87.20%、环城户籍:88.00%、农业局:88.00%、教体局:89.71%。</t>
-  </si>
-  <si>
     <t>×</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>财政局:100.00%、残联:100.00%、工信委:100.00%、环保局:100.00%、农机局:100.00%、水利局:100.00%、应急管理局:100.00%。</t>
+  </si>
+  <si>
+    <t>医保中心:95.43%、自然资源局:95.51%、发政委:96.15%、公安出入境:96.15%、司法局:96.15%、文广新局:98.08%、卫健局:98.29%、林业局:98.72%。</t>
+  </si>
+  <si>
+    <t>农业局:90.00%、人社局:90.08%、环城户籍:91.03%、教体局:91.21%、不动产:93.67%、交通局运管局:93.85%、税务局:94.07%、商务局:94.23%、市场监管局:94.23%、婚检优生:94.87%。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>城管局:84.62%、民政局:84.89%、住建局:87.31%。</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +949,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,19 +1066,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1092,13 +1090,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1145,31 +1138,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,10 +1310,7 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1366,9 +1338,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="注释" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1644,8 +1615,8 @@
   <dimension ref="A1:AF279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A253" sqref="A253:AF257"/>
+      <pane ySplit="2" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE2" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1669,39 +1640,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="60"/>
     </row>
     <row r="2" spans="1:31" s="19" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
@@ -1780,10 +1751,10 @@
       <c r="AB2" s="30">
         <v>30</v>
       </c>
-      <c r="AC2" s="63" t="s">
+      <c r="AC2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="64"/>
+      <c r="AD2" s="63"/>
       <c r="AE2" s="33"/>
     </row>
     <row r="3" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2562,10 +2533,10 @@
       <c r="X20" s="22"/>
       <c r="Y20" s="22"/>
       <c r="Z20" s="22"/>
-      <c r="AA20" s="60" t="s">
+      <c r="AA20" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB20" s="60"/>
+      <c r="AB20" s="59"/>
       <c r="AC20" s="25">
         <f>SUM(AC3:AC19)</f>
         <v>28</v>
@@ -2640,10 +2611,10 @@
       <c r="X22" s="22"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
-      <c r="AA22" s="60" t="s">
+      <c r="AA22" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB22" s="60"/>
+      <c r="AB22" s="59"/>
       <c r="AC22" s="25">
         <v>2</v>
       </c>
@@ -2715,10 +2686,10 @@
       <c r="X24" s="22"/>
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
-      <c r="AA24" s="60" t="s">
+      <c r="AA24" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB24" s="60"/>
+      <c r="AB24" s="59"/>
       <c r="AC24" s="25">
         <v>1</v>
       </c>
@@ -2833,10 +2804,10 @@
       <c r="X27" s="22"/>
       <c r="Y27" s="22"/>
       <c r="Z27" s="22"/>
-      <c r="AA27" s="60" t="s">
+      <c r="AA27" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB27" s="60"/>
+      <c r="AB27" s="59"/>
       <c r="AC27" s="25">
         <v>6</v>
       </c>
@@ -2908,10 +2879,10 @@
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
-      <c r="AA29" s="60" t="s">
+      <c r="AA29" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB29" s="60"/>
+      <c r="AB29" s="59"/>
       <c r="AC29" s="25">
         <v>1</v>
       </c>
@@ -2981,10 +2952,10 @@
       <c r="X31" s="22"/>
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
-      <c r="AA31" s="60" t="s">
+      <c r="AA31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB31" s="60"/>
+      <c r="AB31" s="59"/>
       <c r="AC31" s="25">
         <v>0</v>
       </c>
@@ -3161,10 +3132,10 @@
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
-      <c r="AA36" s="60" t="s">
+      <c r="AA36" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB36" s="60"/>
+      <c r="AB36" s="59"/>
       <c r="AC36" s="25">
         <v>1</v>
       </c>
@@ -3240,10 +3211,10 @@
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
-      <c r="AA38" s="60" t="s">
+      <c r="AA38" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB38" s="60"/>
+      <c r="AB38" s="59"/>
       <c r="AC38" s="25">
         <v>3</v>
       </c>
@@ -3313,10 +3284,10 @@
       <c r="X40" s="22"/>
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
-      <c r="AA40" s="60" t="s">
+      <c r="AA40" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB40" s="60"/>
+      <c r="AB40" s="59"/>
       <c r="AC40" s="25">
         <v>0</v>
       </c>
@@ -3390,10 +3361,10 @@
       <c r="X42" s="22"/>
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
-      <c r="AA42" s="60" t="s">
+      <c r="AA42" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB42" s="60"/>
+      <c r="AB42" s="59"/>
       <c r="AC42" s="25">
         <v>2</v>
       </c>
@@ -3548,10 +3519,10 @@
       <c r="X46" s="22"/>
       <c r="Y46" s="22"/>
       <c r="Z46" s="22"/>
-      <c r="AA46" s="60" t="s">
+      <c r="AA46" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB46" s="60"/>
+      <c r="AB46" s="59"/>
       <c r="AC46" s="25">
         <v>4</v>
       </c>
@@ -3718,10 +3689,10 @@
       <c r="X50" s="22"/>
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
-      <c r="AA50" s="60" t="s">
+      <c r="AA50" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB50" s="60"/>
+      <c r="AB50" s="59"/>
       <c r="AC50" s="25">
         <v>11</v>
       </c>
@@ -4281,10 +4252,10 @@
       <c r="X66" s="22"/>
       <c r="Y66" s="22"/>
       <c r="Z66" s="22"/>
-      <c r="AA66" s="60" t="s">
+      <c r="AA66" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB66" s="60"/>
+      <c r="AB66" s="59"/>
       <c r="AC66" s="25">
         <v>8</v>
       </c>
@@ -4921,10 +4892,10 @@
       <c r="X82" s="22"/>
       <c r="Y82" s="22"/>
       <c r="Z82" s="22"/>
-      <c r="AA82" s="60" t="s">
+      <c r="AA82" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB82" s="60"/>
+      <c r="AB82" s="59"/>
       <c r="AC82" s="25">
         <f>SUM(AC67:AC81)</f>
         <v>25</v>
@@ -5224,10 +5195,10 @@
       <c r="X90" s="22"/>
       <c r="Y90" s="22"/>
       <c r="Z90" s="22"/>
-      <c r="AA90" s="60" t="s">
+      <c r="AA90" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB90" s="60"/>
+      <c r="AB90" s="59"/>
       <c r="AC90" s="25">
         <v>4</v>
       </c>
@@ -5370,10 +5341,10 @@
       <c r="X94" s="22"/>
       <c r="Y94" s="22"/>
       <c r="Z94" s="22"/>
-      <c r="AA94" s="60" t="s">
+      <c r="AA94" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB94" s="60"/>
+      <c r="AB94" s="59"/>
       <c r="AC94" s="25">
         <v>2</v>
       </c>
@@ -6002,10 +5973,10 @@
       <c r="X109" s="22"/>
       <c r="Y109" s="22"/>
       <c r="Z109" s="22"/>
-      <c r="AA109" s="60" t="s">
+      <c r="AA109" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB109" s="60"/>
+      <c r="AB109" s="59"/>
       <c r="AC109" s="25">
         <f>SUM(AC95:AC108)</f>
         <v>37</v>
@@ -6271,10 +6242,10 @@
       <c r="X116" s="22"/>
       <c r="Y116" s="22"/>
       <c r="Z116" s="22"/>
-      <c r="AA116" s="60" t="s">
+      <c r="AA116" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB116" s="60"/>
+      <c r="AB116" s="59"/>
       <c r="AC116" s="25">
         <v>9</v>
       </c>
@@ -8396,10 +8367,10 @@
       <c r="X167" s="22"/>
       <c r="Y167" s="22"/>
       <c r="Z167" s="22"/>
-      <c r="AA167" s="60" t="s">
+      <c r="AA167" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB167" s="60"/>
+      <c r="AB167" s="59"/>
       <c r="AC167" s="25">
         <f>SUM(AC117:AC166)</f>
         <v>132</v>
@@ -8852,10 +8823,10 @@
       <c r="X179" s="22"/>
       <c r="Y179" s="22"/>
       <c r="Z179" s="22"/>
-      <c r="AA179" s="60" t="s">
+      <c r="AA179" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB179" s="60"/>
+      <c r="AB179" s="59"/>
       <c r="AC179" s="25">
         <v>15</v>
       </c>
@@ -9728,10 +9699,10 @@
       <c r="X203" s="22"/>
       <c r="Y203" s="22"/>
       <c r="Z203" s="22"/>
-      <c r="AA203" s="60" t="s">
+      <c r="AA203" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB203" s="60"/>
+      <c r="AB203" s="59"/>
       <c r="AC203" s="25">
         <f>SUM(AC180:AC202)</f>
         <v>22</v>
@@ -9841,10 +9812,10 @@
       <c r="X206" s="22"/>
       <c r="Y206" s="22"/>
       <c r="Z206" s="22"/>
-      <c r="AA206" s="60" t="s">
+      <c r="AA206" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB206" s="60"/>
+      <c r="AB206" s="59"/>
       <c r="AC206" s="25">
         <v>3</v>
       </c>
@@ -10215,10 +10186,10 @@
       <c r="X216" s="22"/>
       <c r="Y216" s="22"/>
       <c r="Z216" s="22"/>
-      <c r="AA216" s="60" t="s">
+      <c r="AA216" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB216" s="60"/>
+      <c r="AB216" s="59"/>
       <c r="AC216" s="25">
         <v>11</v>
       </c>
@@ -10311,36 +10282,36 @@
       <c r="AE218" s="38"/>
     </row>
     <row r="219" spans="1:31" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="59"/>
-      <c r="B219" s="59"/>
-      <c r="C219" s="59"/>
-      <c r="D219" s="59"/>
-      <c r="E219" s="59"/>
-      <c r="F219" s="59"/>
-      <c r="G219" s="59"/>
-      <c r="H219" s="59"/>
-      <c r="I219" s="59"/>
-      <c r="J219" s="59"/>
-      <c r="K219" s="59"/>
-      <c r="L219" s="59"/>
-      <c r="M219" s="59"/>
-      <c r="N219" s="59"/>
-      <c r="O219" s="59"/>
-      <c r="P219" s="59"/>
-      <c r="Q219" s="59"/>
-      <c r="R219" s="59"/>
-      <c r="S219" s="59"/>
-      <c r="T219" s="59"/>
-      <c r="U219" s="59"/>
-      <c r="V219" s="59"/>
-      <c r="W219" s="59"/>
-      <c r="X219" s="59"/>
-      <c r="Y219" s="59"/>
+      <c r="A219" s="58"/>
+      <c r="B219" s="58"/>
+      <c r="C219" s="58"/>
+      <c r="D219" s="58"/>
+      <c r="E219" s="58"/>
+      <c r="F219" s="58"/>
+      <c r="G219" s="58"/>
+      <c r="H219" s="58"/>
+      <c r="I219" s="58"/>
+      <c r="J219" s="58"/>
+      <c r="K219" s="58"/>
+      <c r="L219" s="58"/>
+      <c r="M219" s="58"/>
+      <c r="N219" s="58"/>
+      <c r="O219" s="58"/>
+      <c r="P219" s="58"/>
+      <c r="Q219" s="58"/>
+      <c r="R219" s="58"/>
+      <c r="S219" s="58"/>
+      <c r="T219" s="58"/>
+      <c r="U219" s="58"/>
+      <c r="V219" s="58"/>
+      <c r="W219" s="58"/>
+      <c r="X219" s="58"/>
+      <c r="Y219" s="58"/>
       <c r="Z219" s="22"/>
-      <c r="AA219" s="60" t="s">
+      <c r="AA219" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB219" s="60"/>
+      <c r="AB219" s="59"/>
       <c r="AC219" s="25">
         <v>4</v>
       </c>
@@ -11060,10 +11031,10 @@
       <c r="X236" s="22"/>
       <c r="Y236" s="22"/>
       <c r="Z236" s="22"/>
-      <c r="AA236" s="60" t="s">
+      <c r="AA236" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB236" s="60"/>
+      <c r="AB236" s="59"/>
       <c r="AC236" s="25">
         <f>SUM(AC220:AC235)</f>
         <v>46</v>
@@ -11508,10 +11479,10 @@
       <c r="X247" s="22"/>
       <c r="Y247" s="22"/>
       <c r="Z247" s="22"/>
-      <c r="AA247" s="60" t="s">
+      <c r="AA247" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB247" s="60"/>
+      <c r="AB247" s="59"/>
       <c r="AC247" s="25">
         <f>SUM(AC238:AC246)</f>
         <v>23</v>
@@ -11666,10 +11637,10 @@
       <c r="X251" s="22"/>
       <c r="Y251" s="22"/>
       <c r="Z251" s="22"/>
-      <c r="AA251" s="60" t="s">
+      <c r="AA251" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="AB251" s="60"/>
+      <c r="AB251" s="59"/>
       <c r="AC251" s="41">
         <v>3</v>
       </c>
@@ -11701,151 +11672,151 @@
       <c r="A254" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="B254" s="57" t="s">
+      <c r="B254" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="C254" s="57"/>
-      <c r="D254" s="57"/>
-      <c r="E254" s="57"/>
-      <c r="F254" s="57"/>
-      <c r="G254" s="57"/>
-      <c r="H254" s="57"/>
-      <c r="I254" s="57"/>
-      <c r="J254" s="57"/>
-      <c r="K254" s="57"/>
-      <c r="L254" s="57"/>
-      <c r="M254" s="57"/>
-      <c r="N254" s="57"/>
-      <c r="O254" s="57"/>
-      <c r="P254" s="57"/>
-      <c r="Q254" s="57"/>
-      <c r="R254" s="57"/>
-      <c r="S254" s="57"/>
-      <c r="T254" s="57"/>
-      <c r="U254" s="57"/>
-      <c r="V254" s="57"/>
-      <c r="W254" s="57"/>
-      <c r="X254" s="57"/>
-      <c r="Y254" s="57"/>
-      <c r="Z254" s="57"/>
-      <c r="AA254" s="57"/>
-      <c r="AB254" s="57"/>
-      <c r="AC254" s="57"/>
-      <c r="AD254" s="57"/>
-      <c r="AE254" s="57"/>
-      <c r="AF254" s="57"/>
+      <c r="C254" s="56"/>
+      <c r="D254" s="56"/>
+      <c r="E254" s="56"/>
+      <c r="F254" s="56"/>
+      <c r="G254" s="56"/>
+      <c r="H254" s="56"/>
+      <c r="I254" s="56"/>
+      <c r="J254" s="56"/>
+      <c r="K254" s="56"/>
+      <c r="L254" s="56"/>
+      <c r="M254" s="56"/>
+      <c r="N254" s="56"/>
+      <c r="O254" s="56"/>
+      <c r="P254" s="56"/>
+      <c r="Q254" s="56"/>
+      <c r="R254" s="56"/>
+      <c r="S254" s="56"/>
+      <c r="T254" s="56"/>
+      <c r="U254" s="56"/>
+      <c r="V254" s="56"/>
+      <c r="W254" s="56"/>
+      <c r="X254" s="56"/>
+      <c r="Y254" s="56"/>
+      <c r="Z254" s="56"/>
+      <c r="AA254" s="56"/>
+      <c r="AB254" s="56"/>
+      <c r="AC254" s="56"/>
+      <c r="AD254" s="56"/>
+      <c r="AE254" s="56"/>
+      <c r="AF254" s="56"/>
     </row>
     <row r="255" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A255" s="58" t="s">
+      <c r="A255" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="B255" s="57" t="s">
+      <c r="B255" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="C255" s="57"/>
-      <c r="D255" s="57"/>
-      <c r="E255" s="57"/>
-      <c r="F255" s="57"/>
-      <c r="G255" s="57"/>
-      <c r="H255" s="57"/>
-      <c r="I255" s="57"/>
-      <c r="J255" s="57"/>
-      <c r="K255" s="57"/>
-      <c r="L255" s="57"/>
-      <c r="M255" s="57"/>
-      <c r="N255" s="57"/>
-      <c r="O255" s="57"/>
-      <c r="P255" s="57"/>
-      <c r="Q255" s="57"/>
-      <c r="R255" s="57"/>
-      <c r="S255" s="57"/>
-      <c r="T255" s="57"/>
-      <c r="U255" s="57"/>
-      <c r="V255" s="57"/>
-      <c r="W255" s="57"/>
-      <c r="X255" s="57"/>
-      <c r="Y255" s="57"/>
-      <c r="Z255" s="57"/>
-      <c r="AA255" s="57"/>
-      <c r="AB255" s="57"/>
-      <c r="AC255" s="57"/>
-      <c r="AD255" s="57"/>
-      <c r="AE255" s="57"/>
-      <c r="AF255" s="57"/>
+      <c r="C255" s="56"/>
+      <c r="D255" s="56"/>
+      <c r="E255" s="56"/>
+      <c r="F255" s="56"/>
+      <c r="G255" s="56"/>
+      <c r="H255" s="56"/>
+      <c r="I255" s="56"/>
+      <c r="J255" s="56"/>
+      <c r="K255" s="56"/>
+      <c r="L255" s="56"/>
+      <c r="M255" s="56"/>
+      <c r="N255" s="56"/>
+      <c r="O255" s="56"/>
+      <c r="P255" s="56"/>
+      <c r="Q255" s="56"/>
+      <c r="R255" s="56"/>
+      <c r="S255" s="56"/>
+      <c r="T255" s="56"/>
+      <c r="U255" s="56"/>
+      <c r="V255" s="56"/>
+      <c r="W255" s="56"/>
+      <c r="X255" s="56"/>
+      <c r="Y255" s="56"/>
+      <c r="Z255" s="56"/>
+      <c r="AA255" s="56"/>
+      <c r="AB255" s="56"/>
+      <c r="AC255" s="56"/>
+      <c r="AD255" s="56"/>
+      <c r="AE255" s="56"/>
+      <c r="AF255" s="56"/>
     </row>
     <row r="256" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="58"/>
-      <c r="B256" s="57" t="s">
+      <c r="A256" s="57"/>
+      <c r="B256" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="C256" s="57"/>
-      <c r="D256" s="57"/>
-      <c r="E256" s="57"/>
-      <c r="F256" s="57"/>
-      <c r="G256" s="57"/>
-      <c r="H256" s="57"/>
-      <c r="I256" s="57"/>
-      <c r="J256" s="57"/>
-      <c r="K256" s="57"/>
-      <c r="L256" s="57"/>
-      <c r="M256" s="57"/>
-      <c r="N256" s="57"/>
-      <c r="O256" s="57"/>
-      <c r="P256" s="57"/>
-      <c r="Q256" s="57"/>
-      <c r="R256" s="57"/>
-      <c r="S256" s="57"/>
-      <c r="T256" s="57"/>
-      <c r="U256" s="57"/>
-      <c r="V256" s="57"/>
-      <c r="W256" s="57"/>
-      <c r="X256" s="57"/>
-      <c r="Y256" s="57"/>
-      <c r="Z256" s="57"/>
-      <c r="AA256" s="57"/>
-      <c r="AB256" s="57"/>
-      <c r="AC256" s="57"/>
-      <c r="AD256" s="57"/>
-      <c r="AE256" s="57"/>
-      <c r="AF256" s="57"/>
+      <c r="C256" s="56"/>
+      <c r="D256" s="56"/>
+      <c r="E256" s="56"/>
+      <c r="F256" s="56"/>
+      <c r="G256" s="56"/>
+      <c r="H256" s="56"/>
+      <c r="I256" s="56"/>
+      <c r="J256" s="56"/>
+      <c r="K256" s="56"/>
+      <c r="L256" s="56"/>
+      <c r="M256" s="56"/>
+      <c r="N256" s="56"/>
+      <c r="O256" s="56"/>
+      <c r="P256" s="56"/>
+      <c r="Q256" s="56"/>
+      <c r="R256" s="56"/>
+      <c r="S256" s="56"/>
+      <c r="T256" s="56"/>
+      <c r="U256" s="56"/>
+      <c r="V256" s="56"/>
+      <c r="W256" s="56"/>
+      <c r="X256" s="56"/>
+      <c r="Y256" s="56"/>
+      <c r="Z256" s="56"/>
+      <c r="AA256" s="56"/>
+      <c r="AB256" s="56"/>
+      <c r="AC256" s="56"/>
+      <c r="AD256" s="56"/>
+      <c r="AE256" s="56"/>
+      <c r="AF256" s="56"/>
     </row>
     <row r="257" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B257" s="57" t="s">
+      <c r="B257" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="C257" s="57"/>
-      <c r="D257" s="57"/>
-      <c r="E257" s="57"/>
-      <c r="F257" s="57"/>
-      <c r="G257" s="57"/>
-      <c r="H257" s="57"/>
-      <c r="I257" s="57"/>
-      <c r="J257" s="57"/>
-      <c r="K257" s="57"/>
-      <c r="L257" s="57"/>
-      <c r="M257" s="57"/>
-      <c r="N257" s="57"/>
-      <c r="O257" s="57"/>
-      <c r="P257" s="57"/>
-      <c r="Q257" s="57"/>
-      <c r="R257" s="57"/>
-      <c r="S257" s="57"/>
-      <c r="T257" s="57"/>
-      <c r="U257" s="57"/>
-      <c r="V257" s="57"/>
-      <c r="W257" s="57"/>
-      <c r="X257" s="57"/>
-      <c r="Y257" s="57"/>
-      <c r="Z257" s="57"/>
-      <c r="AA257" s="57"/>
-      <c r="AB257" s="57"/>
-      <c r="AC257" s="57"/>
-      <c r="AD257" s="57"/>
-      <c r="AE257" s="57"/>
-      <c r="AF257" s="57"/>
+      <c r="C257" s="56"/>
+      <c r="D257" s="56"/>
+      <c r="E257" s="56"/>
+      <c r="F257" s="56"/>
+      <c r="G257" s="56"/>
+      <c r="H257" s="56"/>
+      <c r="I257" s="56"/>
+      <c r="J257" s="56"/>
+      <c r="K257" s="56"/>
+      <c r="L257" s="56"/>
+      <c r="M257" s="56"/>
+      <c r="N257" s="56"/>
+      <c r="O257" s="56"/>
+      <c r="P257" s="56"/>
+      <c r="Q257" s="56"/>
+      <c r="R257" s="56"/>
+      <c r="S257" s="56"/>
+      <c r="T257" s="56"/>
+      <c r="U257" s="56"/>
+      <c r="V257" s="56"/>
+      <c r="W257" s="56"/>
+      <c r="X257" s="56"/>
+      <c r="Y257" s="56"/>
+      <c r="Z257" s="56"/>
+      <c r="AA257" s="56"/>
+      <c r="AB257" s="56"/>
+      <c r="AC257" s="56"/>
+      <c r="AD257" s="56"/>
+      <c r="AE257" s="56"/>
+      <c r="AF257" s="56"/>
     </row>
     <row r="258" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C258" s="23"/>
@@ -12131,11 +12102,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH260"/>
+  <dimension ref="A1:AF260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF247" sqref="AF247"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG1" sqref="AG1:AJ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" x14ac:dyDescent="0.15"/>
@@ -12154,8 +12125,8 @@
     <col min="30" max="30" width="13.25" style="3" customWidth="1"/>
     <col min="31" max="31" width="9" style="4"/>
     <col min="32" max="32" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="58" width="9" style="4"/>
-    <col min="59" max="16384" width="11" style="4"/>
+    <col min="33" max="54" width="9" style="4"/>
+    <col min="55" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.15">
@@ -12276,7 +12247,9 @@
       <c r="Y2" s="9"/>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
+      <c r="AB2" s="9">
+        <v>3</v>
+      </c>
       <c r="AC2" s="9"/>
       <c r="AD2" s="3">
         <v>3</v>
@@ -12316,7 +12289,9 @@
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
+      <c r="AB3" s="9">
+        <v>3</v>
+      </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="9">
         <v>3</v>
@@ -12364,7 +12339,9 @@
       <c r="AA4" s="9">
         <v>1</v>
       </c>
-      <c r="AB4" s="9"/>
+      <c r="AB4" s="9">
+        <v>4</v>
+      </c>
       <c r="AC4" s="9">
         <v>1</v>
       </c>
@@ -12410,7 +12387,9 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
+      <c r="AB5" s="9">
+        <v>2</v>
+      </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="9">
         <v>2</v>
@@ -12450,7 +12429,9 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
       <c r="AC6" s="9"/>
       <c r="AD6" s="9">
         <v>0</v>
@@ -12494,7 +12475,9 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
       <c r="AC7" s="9"/>
       <c r="AD7" s="9">
         <v>2</v>
@@ -12538,7 +12521,9 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
+      <c r="AB8" s="9">
+        <v>1</v>
+      </c>
       <c r="AC8" s="9"/>
       <c r="AD8" s="9">
         <v>2</v>
@@ -12584,7 +12569,9 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
+      <c r="AB9" s="9">
+        <v>2</v>
+      </c>
       <c r="AC9" s="9"/>
       <c r="AD9" s="9">
         <v>3</v>
@@ -12626,7 +12613,9 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
+      <c r="AB10" s="9">
+        <v>1</v>
+      </c>
       <c r="AC10" s="9"/>
       <c r="AD10" s="9">
         <v>1</v>
@@ -12668,7 +12657,9 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
       <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
+      <c r="AB11" s="9">
+        <v>1</v>
+      </c>
       <c r="AC11" s="9"/>
       <c r="AD11" s="3">
         <v>1</v>
@@ -12712,7 +12703,9 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
+      <c r="AB12" s="9">
+        <v>2</v>
+      </c>
       <c r="AC12" s="9"/>
       <c r="AD12" s="3">
         <v>2</v>
@@ -12720,8 +12713,8 @@
       <c r="AE12" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AF12" s="56" t="s">
-        <v>295</v>
+      <c r="AF12" s="55" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.15">
@@ -12762,7 +12755,9 @@
         <v>1</v>
       </c>
       <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
+      <c r="AB13" s="9">
+        <v>5</v>
+      </c>
       <c r="AC13" s="9"/>
       <c r="AD13" s="3">
         <v>5</v>
@@ -12800,7 +12795,9 @@
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
+      <c r="AB14" s="9">
+        <v>2</v>
+      </c>
       <c r="AC14" s="9"/>
       <c r="AD14" s="3">
         <v>2</v>
@@ -12834,7 +12831,9 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
+      <c r="AB15" s="9">
+        <v>0</v>
+      </c>
       <c r="AC15" s="9"/>
       <c r="AD15" s="3">
         <v>0</v>
@@ -12868,7 +12867,9 @@
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
       <c r="AC16" s="9"/>
       <c r="AD16" s="3">
         <v>0</v>
@@ -12902,7 +12903,9 @@
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
+      <c r="AB17" s="9">
+        <v>0</v>
+      </c>
       <c r="AC17" s="9"/>
       <c r="AD17" s="3">
         <v>0</v>
@@ -12940,7 +12943,9 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
+      <c r="AB18" s="9">
+        <v>2</v>
+      </c>
       <c r="AC18" s="9"/>
       <c r="AD18" s="3">
         <v>2</v>
@@ -12949,11 +12954,17 @@
     <row r="19" spans="1:32" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
-      <c r="AB19" t="s">
-        <v>289</v>
+      <c r="AA19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB19">
+        <v>28</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>41</v>
       </c>
       <c r="AD19">
-        <v>33</v>
+        <v>0.93665158371040724</v>
       </c>
       <c r="AE19" t="s">
         <v>290</v>
@@ -12990,7 +13001,9 @@
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
+      <c r="AB20" s="9">
+        <v>0</v>
+      </c>
       <c r="AC20" s="9"/>
       <c r="AD20" s="3">
         <v>0</v>
@@ -13019,13 +13032,17 @@
       <c r="W21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC21" s="9"/>
+      <c r="AA21" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB21" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="4" t="s">
         <v>290</v>
@@ -13062,7 +13079,9 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
+      <c r="AB22" s="9">
+        <v>0</v>
+      </c>
       <c r="AC22" s="9"/>
       <c r="AD22" s="3">
         <v>0</v>
@@ -13091,13 +13110,17 @@
       <c r="W23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC23" s="9"/>
+      <c r="AA23" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="4" t="s">
         <v>290</v>
@@ -13151,7 +13174,7 @@
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AC24" s="9">
         <v>1</v>
@@ -13188,18 +13211,26 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
+      <c r="AB25" s="9">
+        <v>0</v>
+      </c>
       <c r="AC25" s="9"/>
       <c r="AD25" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.15">
-      <c r="AB26" s="3" t="s">
-        <v>289</v>
+      <c r="AA26" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>8</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="AD26" s="3">
-        <v>10</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="AE26" s="4" t="s">
         <v>290</v>
@@ -13238,7 +13269,9 @@
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
+      <c r="AB27" s="9">
+        <v>1</v>
+      </c>
       <c r="AC27" s="9">
         <v>1</v>
       </c>
@@ -13269,13 +13302,17 @@
       <c r="W28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC28" s="9"/>
+      <c r="AA28" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD28" s="3">
-        <v>2</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="AE28" s="4" t="s">
         <v>290</v>
@@ -13312,7 +13349,9 @@
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
+      <c r="AB29" s="9">
+        <v>0</v>
+      </c>
       <c r="AC29" s="9"/>
       <c r="AD29" s="3">
         <v>0</v>
@@ -13341,13 +13380,17 @@
       <c r="W30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC30" s="9"/>
+      <c r="AA30" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="4" t="s">
         <v>290</v>
@@ -13388,7 +13431,9 @@
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
+      <c r="AB31" s="9">
+        <v>2</v>
+      </c>
       <c r="AC31" s="9"/>
       <c r="AD31" s="3">
         <v>2</v>
@@ -13424,7 +13469,9 @@
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
+      <c r="AB32" s="9">
+        <v>1</v>
+      </c>
       <c r="AC32" s="9">
         <v>1</v>
       </c>
@@ -13464,7 +13511,9 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
+      <c r="AB33" s="9">
+        <v>0</v>
+      </c>
       <c r="AC33" s="9"/>
       <c r="AD33" s="3">
         <v>2</v>
@@ -13493,13 +13542,17 @@
       <c r="W34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC34" s="9"/>
+      <c r="AA34" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB34" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC34" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD34" s="3">
-        <v>6</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="AE34" s="4" t="s">
         <v>290</v>
@@ -13536,7 +13589,9 @@
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
+      <c r="AB35" s="9">
+        <v>0</v>
+      </c>
       <c r="AC35" s="9"/>
       <c r="AD35" s="3">
         <v>0</v>
@@ -13565,13 +13620,17 @@
       <c r="W36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC36" s="9"/>
+      <c r="AA36" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36" s="4" t="s">
         <v>290</v>
@@ -13613,7 +13672,7 @@
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC37" s="9">
         <v>1</v>
@@ -13654,7 +13713,9 @@
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
+      <c r="AB38" s="9">
+        <v>2</v>
+      </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="3">
         <v>2</v>
@@ -13694,7 +13755,9 @@
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
+      <c r="AB39" s="9">
+        <v>3</v>
+      </c>
       <c r="AC39" s="9"/>
       <c r="AD39" s="3">
         <v>3</v>
@@ -13723,13 +13786,17 @@
       <c r="W40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC40" s="9"/>
+      <c r="AA40" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB40" s="9">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD40" s="3">
-        <v>9</v>
+        <v>0.91025641025641024</v>
       </c>
       <c r="AE40" s="4" t="s">
         <v>290</v>
@@ -13766,7 +13833,9 @@
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
+      <c r="AB41" s="9">
+        <v>0</v>
+      </c>
       <c r="AC41" s="9"/>
       <c r="AD41" s="3">
         <v>0</v>
@@ -13800,7 +13869,9 @@
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
+      <c r="AB42" s="9">
+        <v>0</v>
+      </c>
       <c r="AC42" s="9"/>
       <c r="AD42" s="3">
         <v>0</v>
@@ -13836,7 +13907,9 @@
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
+      <c r="AB43" s="9">
+        <v>0</v>
+      </c>
       <c r="AC43" s="9"/>
       <c r="AD43" s="3">
         <v>1</v>
@@ -13870,7 +13943,9 @@
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
+      <c r="AB44" s="9">
+        <v>0</v>
+      </c>
       <c r="AC44" s="9"/>
       <c r="AD44" s="3">
         <v>0</v>
@@ -13904,7 +13979,9 @@
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
+      <c r="AB45" s="9">
+        <v>0</v>
+      </c>
       <c r="AC45" s="9"/>
       <c r="AD45" s="3">
         <v>0</v>
@@ -13938,7 +14015,9 @@
       <c r="Y46" s="9"/>
       <c r="Z46" s="9"/>
       <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
+      <c r="AB46" s="9">
+        <v>0</v>
+      </c>
       <c r="AC46" s="9"/>
       <c r="AD46" s="3">
         <v>0</v>
@@ -13972,7 +14051,9 @@
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
       <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
+      <c r="AB47" s="9">
+        <v>0</v>
+      </c>
       <c r="AC47" s="9"/>
       <c r="AD47" s="3">
         <v>0</v>
@@ -14006,7 +14087,9 @@
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
+      <c r="AB48" s="9">
+        <v>0</v>
+      </c>
       <c r="AC48" s="9">
         <v>1</v>
       </c>
@@ -14042,7 +14125,9 @@
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
       <c r="AA49" s="9"/>
-      <c r="AB49" s="9"/>
+      <c r="AB49" s="9">
+        <v>0</v>
+      </c>
       <c r="AC49" s="9"/>
       <c r="AD49" s="3">
         <v>0</v>
@@ -14106,7 +14191,9 @@
       <c r="Y50" s="9"/>
       <c r="Z50" s="9"/>
       <c r="AA50" s="9"/>
-      <c r="AB50" s="9"/>
+      <c r="AB50" s="9">
+        <v>15</v>
+      </c>
       <c r="AC50" s="9"/>
       <c r="AD50" s="3">
         <v>15</v>
@@ -14142,7 +14229,9 @@
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
       <c r="AA51" s="9"/>
-      <c r="AB51" s="9"/>
+      <c r="AB51" s="9">
+        <v>1</v>
+      </c>
       <c r="AC51" s="9"/>
       <c r="AD51" s="3">
         <v>1</v>
@@ -14182,7 +14271,9 @@
       <c r="Y52" s="9"/>
       <c r="Z52" s="9"/>
       <c r="AA52" s="9"/>
-      <c r="AB52" s="9"/>
+      <c r="AB52" s="9">
+        <v>3</v>
+      </c>
       <c r="AC52" s="9"/>
       <c r="AD52" s="3">
         <v>3</v>
@@ -14218,7 +14309,9 @@
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
       <c r="AA53" s="9"/>
-      <c r="AB53" s="9"/>
+      <c r="AB53" s="9">
+        <v>1</v>
+      </c>
       <c r="AC53" s="9"/>
       <c r="AD53" s="3">
         <v>1</v>
@@ -14252,7 +14345,9 @@
       <c r="Y54" s="9"/>
       <c r="Z54" s="9"/>
       <c r="AA54" s="9"/>
-      <c r="AB54" s="9"/>
+      <c r="AB54" s="9">
+        <v>0</v>
+      </c>
       <c r="AC54" s="9"/>
       <c r="AD54" s="3">
         <v>0</v>
@@ -14286,7 +14381,9 @@
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
       <c r="AA55" s="9"/>
-      <c r="AB55" s="9"/>
+      <c r="AB55" s="9">
+        <v>0</v>
+      </c>
       <c r="AC55" s="9"/>
       <c r="AD55" s="3">
         <v>0</v>
@@ -14315,13 +14412,17 @@
       <c r="W56" s="9"/>
       <c r="Y56" s="9"/>
       <c r="Z56" s="9"/>
-      <c r="AA56" s="9"/>
-      <c r="AB56" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC56" s="9"/>
+      <c r="AA56" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>20</v>
+      </c>
+      <c r="AC56" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD56" s="3">
-        <v>22</v>
+        <v>0.94871794871794868</v>
       </c>
       <c r="AE56" s="4" t="s">
         <v>290</v>
@@ -14358,7 +14459,9 @@
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
       <c r="AA57" s="9"/>
-      <c r="AB57" s="9"/>
+      <c r="AB57" s="9">
+        <v>0</v>
+      </c>
       <c r="AC57" s="9"/>
       <c r="AD57" s="3">
         <v>0</v>
@@ -14392,7 +14495,9 @@
       <c r="Y58" s="9"/>
       <c r="Z58" s="9"/>
       <c r="AA58" s="9"/>
-      <c r="AB58" s="9"/>
+      <c r="AB58" s="9">
+        <v>0</v>
+      </c>
       <c r="AC58" s="9"/>
       <c r="AD58" s="3">
         <v>0</v>
@@ -14430,7 +14535,9 @@
       </c>
       <c r="Z59" s="9"/>
       <c r="AA59" s="9"/>
-      <c r="AB59" s="9"/>
+      <c r="AB59" s="9">
+        <v>2</v>
+      </c>
       <c r="AC59" s="9"/>
       <c r="AD59" s="3">
         <v>2</v>
@@ -14466,7 +14573,9 @@
       <c r="Y60" s="9"/>
       <c r="Z60" s="9"/>
       <c r="AA60" s="9"/>
-      <c r="AB60" s="9"/>
+      <c r="AB60" s="9">
+        <v>1</v>
+      </c>
       <c r="AC60" s="9"/>
       <c r="AD60" s="3">
         <v>1</v>
@@ -14504,7 +14613,9 @@
         <v>8</v>
       </c>
       <c r="AA61" s="9"/>
-      <c r="AB61" s="9"/>
+      <c r="AB61" s="9">
+        <v>2</v>
+      </c>
       <c r="AC61" s="9" t="s">
         <v>8</v>
       </c>
@@ -14546,7 +14657,9 @@
         <v>1</v>
       </c>
       <c r="AA62" s="9"/>
-      <c r="AB62" s="9"/>
+      <c r="AB62" s="9">
+        <v>3</v>
+      </c>
       <c r="AC62" s="9"/>
       <c r="AD62" s="3">
         <v>3</v>
@@ -14588,7 +14701,9 @@
         <v>8</v>
       </c>
       <c r="AA63" s="9"/>
-      <c r="AB63" s="9"/>
+      <c r="AB63" s="9">
+        <v>4</v>
+      </c>
       <c r="AC63" s="9" t="s">
         <v>8</v>
       </c>
@@ -14624,7 +14739,9 @@
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
+      <c r="AB64" s="9">
+        <v>0</v>
+      </c>
       <c r="AC64" s="9"/>
       <c r="AD64" s="3">
         <v>0</v>
@@ -14662,7 +14779,9 @@
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
+      <c r="AB65" s="9">
+        <v>2</v>
+      </c>
       <c r="AC65" s="9"/>
       <c r="AD65" s="3">
         <v>2</v>
@@ -14698,7 +14817,9 @@
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
-      <c r="AB66" s="9"/>
+      <c r="AB66" s="9">
+        <v>1</v>
+      </c>
       <c r="AC66" s="9"/>
       <c r="AD66" s="3">
         <v>1</v>
@@ -14734,7 +14855,9 @@
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
-      <c r="AB67" s="9"/>
+      <c r="AB67" s="9">
+        <v>1</v>
+      </c>
       <c r="AC67" s="9"/>
       <c r="AD67" s="3">
         <v>1</v>
@@ -14774,7 +14897,9 @@
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
+      <c r="AB68" s="9">
+        <v>2</v>
+      </c>
       <c r="AC68" s="9">
         <v>0</v>
       </c>
@@ -14810,7 +14935,9 @@
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
-      <c r="AB69" s="9"/>
+      <c r="AB69" s="9">
+        <v>0</v>
+      </c>
       <c r="AC69" s="9"/>
       <c r="AD69" s="3">
         <v>0</v>
@@ -14846,7 +14973,9 @@
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
-      <c r="AB70" s="9"/>
+      <c r="AB70" s="9">
+        <v>1</v>
+      </c>
       <c r="AC70" s="9"/>
       <c r="AD70" s="3">
         <v>1</v>
@@ -14891,7 +15020,7 @@
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC71" s="9"/>
       <c r="AD71" s="3">
@@ -14921,13 +15050,17 @@
       <c r="W72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-      <c r="AB72" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC72" s="9"/>
+      <c r="AA72" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB72" s="9">
+        <v>24</v>
+      </c>
+      <c r="AC72" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD72" s="3">
-        <v>29</v>
+        <v>0.93846153846153846</v>
       </c>
       <c r="AE72" s="4" t="s">
         <v>290</v>
@@ -14976,7 +15109,9 @@
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
-      <c r="AB73" s="9"/>
+      <c r="AB73" s="9">
+        <v>6</v>
+      </c>
       <c r="AC73" s="9"/>
       <c r="AD73" s="3">
         <v>6</v>
@@ -15014,7 +15149,9 @@
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
-      <c r="AB74" s="9"/>
+      <c r="AB74" s="9">
+        <v>2</v>
+      </c>
       <c r="AC74" s="9"/>
       <c r="AD74" s="3">
         <v>2</v>
@@ -15054,7 +15191,9 @@
         <v>1</v>
       </c>
       <c r="AA75" s="9"/>
-      <c r="AB75" s="9"/>
+      <c r="AB75" s="9">
+        <v>3</v>
+      </c>
       <c r="AC75" s="9">
         <v>1</v>
       </c>
@@ -15092,7 +15231,9 @@
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
-      <c r="AB76" s="9"/>
+      <c r="AB76" s="9">
+        <v>1</v>
+      </c>
       <c r="AC76" s="9"/>
       <c r="AD76" s="3">
         <v>1</v>
@@ -15128,7 +15269,9 @@
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
-      <c r="AB77" s="9"/>
+      <c r="AB77" s="9">
+        <v>1</v>
+      </c>
       <c r="AC77" s="9"/>
       <c r="AD77" s="3">
         <v>1</v>
@@ -15162,7 +15305,9 @@
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
-      <c r="AB78" s="9"/>
+      <c r="AB78" s="9">
+        <v>0</v>
+      </c>
       <c r="AC78" s="9"/>
       <c r="AD78" s="3">
         <v>0</v>
@@ -15202,7 +15347,9 @@
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
-      <c r="AB79" s="9"/>
+      <c r="AB79" s="9">
+        <v>3</v>
+      </c>
       <c r="AC79" s="9">
         <v>0</v>
       </c>
@@ -15233,13 +15380,17 @@
       <c r="W80" s="9"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
-      <c r="AB80" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC80" s="9"/>
+      <c r="AA80" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB80" s="9">
+        <v>16</v>
+      </c>
+      <c r="AC80" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD80" s="3">
-        <v>18</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="AE80" s="4" t="s">
         <v>290</v>
@@ -15276,7 +15427,9 @@
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
-      <c r="AB81" s="9"/>
+      <c r="AB81" s="9">
+        <v>0</v>
+      </c>
       <c r="AC81" s="9"/>
       <c r="AD81" s="3">
         <v>0</v>
@@ -15310,7 +15463,9 @@
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
-      <c r="AB82" s="9"/>
+      <c r="AB82" s="9">
+        <v>0</v>
+      </c>
       <c r="AC82" s="9"/>
       <c r="AD82" s="3">
         <v>0</v>
@@ -15346,7 +15501,9 @@
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
-      <c r="AB83" s="9"/>
+      <c r="AB83" s="9">
+        <v>1</v>
+      </c>
       <c r="AC83" s="9"/>
       <c r="AD83" s="3">
         <v>1</v>
@@ -15375,13 +15532,17 @@
       <c r="W84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
-      <c r="AA84" s="9"/>
-      <c r="AB84" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC84" s="9"/>
+      <c r="AA84" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB84" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD84" s="3">
-        <v>1</v>
+        <v>0.98717948717948723</v>
       </c>
       <c r="AE84" s="4" t="s">
         <v>290</v>
@@ -15426,7 +15587,9 @@
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
-      <c r="AB85" s="9"/>
+      <c r="AB85" s="9">
+        <v>4</v>
+      </c>
       <c r="AC85" s="9">
         <v>1</v>
       </c>
@@ -15472,7 +15635,9 @@
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
-      <c r="AB86" s="9"/>
+      <c r="AB86" s="9">
+        <v>4</v>
+      </c>
       <c r="AC86" s="9">
         <v>0</v>
       </c>
@@ -15530,7 +15695,9 @@
       </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
-      <c r="AB87" s="9"/>
+      <c r="AB87" s="9">
+        <v>9</v>
+      </c>
       <c r="AC87" s="9">
         <v>0</v>
       </c>
@@ -15573,7 +15740,7 @@
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC88" s="9">
         <v>0</v>
@@ -15616,7 +15783,9 @@
       <c r="AA89" s="9">
         <v>1</v>
       </c>
-      <c r="AB89" s="9"/>
+      <c r="AB89" s="9">
+        <v>3</v>
+      </c>
       <c r="AC89" s="9"/>
       <c r="AD89" s="3">
         <v>3</v>
@@ -15662,7 +15831,9 @@
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
-      <c r="AB90" s="9"/>
+      <c r="AB90" s="9">
+        <v>6</v>
+      </c>
       <c r="AC90" s="9" t="s">
         <v>8</v>
       </c>
@@ -15705,7 +15876,7 @@
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC91" s="9"/>
       <c r="AD91" s="3">
@@ -15744,7 +15915,9 @@
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
-      <c r="AB92" s="9"/>
+      <c r="AB92" s="9">
+        <v>0</v>
+      </c>
       <c r="AC92" s="9">
         <v>0</v>
       </c>
@@ -15796,7 +15969,9 @@
         <v>0</v>
       </c>
       <c r="AA93" s="9"/>
-      <c r="AB93" s="9"/>
+      <c r="AB93" s="9">
+        <v>7</v>
+      </c>
       <c r="AC93" s="9">
         <v>0</v>
       </c>
@@ -15838,7 +16013,9 @@
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
-      <c r="AB94" s="9"/>
+      <c r="AB94" s="9">
+        <v>3</v>
+      </c>
       <c r="AC94" s="9"/>
       <c r="AD94" s="3">
         <v>3</v>
@@ -15872,7 +16049,9 @@
       <c r="Y95" s="9"/>
       <c r="Z95" s="9"/>
       <c r="AA95" s="9"/>
-      <c r="AB95" s="9"/>
+      <c r="AB95" s="9">
+        <v>0</v>
+      </c>
       <c r="AC95" s="9"/>
       <c r="AD95" s="3">
         <v>0</v>
@@ -15920,7 +16099,9 @@
       <c r="Y96" s="9"/>
       <c r="Z96" s="9"/>
       <c r="AA96" s="9"/>
-      <c r="AB96" s="9"/>
+      <c r="AB96" s="9">
+        <v>2</v>
+      </c>
       <c r="AC96" s="9"/>
       <c r="AD96" s="3">
         <v>7</v>
@@ -15970,7 +16151,9 @@
         <v>0</v>
       </c>
       <c r="AA97" s="9"/>
-      <c r="AB97" s="9"/>
+      <c r="AB97" s="9">
+        <v>5</v>
+      </c>
       <c r="AC97" s="9">
         <v>0</v>
       </c>
@@ -16018,7 +16201,9 @@
       <c r="Y98" s="9"/>
       <c r="Z98" s="9"/>
       <c r="AA98" s="9"/>
-      <c r="AB98" s="9"/>
+      <c r="AB98" s="9">
+        <v>6</v>
+      </c>
       <c r="AC98" s="9"/>
       <c r="AD98" s="3">
         <v>6</v>
@@ -16047,13 +16232,17 @@
       <c r="W99" s="9"/>
       <c r="Y99" s="9"/>
       <c r="Z99" s="9"/>
-      <c r="AA99" s="9"/>
-      <c r="AB99" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC99" s="9"/>
+      <c r="AA99" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB99" s="9">
+        <v>55</v>
+      </c>
+      <c r="AC99" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD99" s="3">
-        <v>79</v>
+        <v>0.84890109890109888</v>
       </c>
       <c r="AE99" s="4" t="s">
         <v>290</v>
@@ -16090,7 +16279,9 @@
       <c r="Y100" s="9"/>
       <c r="Z100" s="9"/>
       <c r="AA100" s="9"/>
-      <c r="AB100" s="9"/>
+      <c r="AB100" s="9">
+        <v>0</v>
+      </c>
       <c r="AC100" s="9">
         <v>1</v>
       </c>
@@ -16121,11 +16312,15 @@
       <c r="W101" s="9"/>
       <c r="Y101" s="9"/>
       <c r="Z101" s="9"/>
-      <c r="AA101" s="9"/>
-      <c r="AB101" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC101" s="9"/>
+      <c r="AA101" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB101" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD101" s="3">
         <v>1</v>
       </c>
@@ -16171,7 +16366,7 @@
       <c r="Z102" s="9"/>
       <c r="AA102" s="9"/>
       <c r="AB102" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC102" s="9"/>
       <c r="AD102" s="3">
@@ -16214,7 +16409,9 @@
         <v>1</v>
       </c>
       <c r="AA103" s="9"/>
-      <c r="AB103" s="9"/>
+      <c r="AB103" s="9">
+        <v>4</v>
+      </c>
       <c r="AC103" s="9"/>
       <c r="AD103" s="3">
         <v>4</v>
@@ -16250,7 +16447,9 @@
       <c r="Y104" s="9"/>
       <c r="Z104" s="9"/>
       <c r="AA104" s="9"/>
-      <c r="AB104" s="9"/>
+      <c r="AB104" s="9">
+        <v>1</v>
+      </c>
       <c r="AC104" s="9"/>
       <c r="AD104" s="3">
         <v>1</v>
@@ -16288,7 +16487,9 @@
       <c r="AA105" s="9">
         <v>1</v>
       </c>
-      <c r="AB105" s="9"/>
+      <c r="AB105" s="9">
+        <v>2</v>
+      </c>
       <c r="AC105" s="9"/>
       <c r="AD105" s="3">
         <v>2</v>
@@ -16328,7 +16529,9 @@
       <c r="AA106" s="9">
         <v>1</v>
       </c>
-      <c r="AB106" s="9"/>
+      <c r="AB106" s="9">
+        <v>3</v>
+      </c>
       <c r="AC106" s="9">
         <v>1</v>
       </c>
@@ -16359,13 +16562,17 @@
       <c r="W107" s="9"/>
       <c r="Y107" s="9"/>
       <c r="Z107" s="9"/>
-      <c r="AA107" s="9"/>
-      <c r="AB107" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC107" s="9"/>
+      <c r="AA107" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB107" s="9">
+        <v>13</v>
+      </c>
+      <c r="AC107" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD107" s="3">
-        <v>15</v>
+        <v>0.9</v>
       </c>
       <c r="AE107" s="4" t="s">
         <v>290</v>
@@ -16406,7 +16613,9 @@
       <c r="AA108" s="9">
         <v>1</v>
       </c>
-      <c r="AB108" s="9"/>
+      <c r="AB108" s="9">
+        <v>2</v>
+      </c>
       <c r="AC108" s="9"/>
       <c r="AD108" s="3">
         <v>2</v>
@@ -16451,7 +16660,7 @@
         <v>1</v>
       </c>
       <c r="AB109" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC109" s="9"/>
       <c r="AD109" s="3">
@@ -16488,7 +16697,9 @@
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
-      <c r="AB110" s="9"/>
+      <c r="AB110" s="9">
+        <v>0</v>
+      </c>
       <c r="AC110" s="9"/>
       <c r="AD110" s="3">
         <v>1</v>
@@ -16528,7 +16739,9 @@
       <c r="AA111" s="9">
         <v>1</v>
       </c>
-      <c r="AB111" s="9"/>
+      <c r="AB111" s="9">
+        <v>3</v>
+      </c>
       <c r="AC111" s="9">
         <v>1</v>
       </c>
@@ -16568,7 +16781,9 @@
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
-      <c r="AB112" s="9"/>
+      <c r="AB112" s="9">
+        <v>2</v>
+      </c>
       <c r="AC112" s="9"/>
       <c r="AD112" s="3">
         <v>2</v>
@@ -16606,7 +16821,9 @@
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
-      <c r="AB113" s="9"/>
+      <c r="AB113" s="9">
+        <v>2</v>
+      </c>
       <c r="AC113" s="9"/>
       <c r="AD113" s="3">
         <v>2</v>
@@ -16646,7 +16863,9 @@
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
-      <c r="AB114" s="9"/>
+      <c r="AB114" s="9">
+        <v>3</v>
+      </c>
       <c r="AC114" s="9"/>
       <c r="AD114" s="3">
         <v>3</v>
@@ -16682,7 +16901,9 @@
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
-      <c r="AB115" s="9"/>
+      <c r="AB115" s="9">
+        <v>1</v>
+      </c>
       <c r="AC115" s="9"/>
       <c r="AD115" s="3">
         <v>1</v>
@@ -16723,7 +16944,7 @@
         <v>1</v>
       </c>
       <c r="AB116" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC116" s="9">
         <v>1</v>
@@ -16766,7 +16987,9 @@
       <c r="AA117" s="9">
         <v>1</v>
       </c>
-      <c r="AB117" s="9"/>
+      <c r="AB117" s="9">
+        <v>2</v>
+      </c>
       <c r="AC117" s="9"/>
       <c r="AD117" s="3">
         <v>3</v>
@@ -16804,7 +17027,9 @@
       <c r="AA118" s="9">
         <v>1</v>
       </c>
-      <c r="AB118" s="9"/>
+      <c r="AB118" s="9">
+        <v>2</v>
+      </c>
       <c r="AC118" s="9">
         <v>1</v>
       </c>
@@ -16846,7 +17071,9 @@
       </c>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
-      <c r="AB119" s="9"/>
+      <c r="AB119" s="9">
+        <v>3</v>
+      </c>
       <c r="AC119" s="9"/>
       <c r="AD119" s="3">
         <v>3</v>
@@ -16884,7 +17111,9 @@
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
-      <c r="AB120" s="9"/>
+      <c r="AB120" s="9">
+        <v>2</v>
+      </c>
       <c r="AC120" s="9"/>
       <c r="AD120" s="3">
         <v>2</v>
@@ -16927,7 +17156,7 @@
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC121" s="9"/>
       <c r="AD121" s="3">
@@ -16978,7 +17207,9 @@
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
-      <c r="AB122" s="9"/>
+      <c r="AB122" s="9">
+        <v>8</v>
+      </c>
       <c r="AC122" s="9"/>
       <c r="AD122" s="3">
         <v>8</v>
@@ -17016,7 +17247,9 @@
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
       <c r="AA123" s="9"/>
-      <c r="AB123" s="9"/>
+      <c r="AB123" s="9">
+        <v>1</v>
+      </c>
       <c r="AC123" s="9"/>
       <c r="AD123" s="3">
         <v>2</v>
@@ -17068,7 +17301,9 @@
       <c r="Y124" s="9"/>
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
-      <c r="AB124" s="9"/>
+      <c r="AB124" s="9">
+        <v>8</v>
+      </c>
       <c r="AC124" s="9"/>
       <c r="AD124" s="3">
         <v>9</v>
@@ -17106,7 +17341,9 @@
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
-      <c r="AB125" s="9"/>
+      <c r="AB125" s="9">
+        <v>2</v>
+      </c>
       <c r="AC125" s="9"/>
       <c r="AD125" s="3">
         <v>2</v>
@@ -17140,7 +17377,9 @@
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
-      <c r="AB126" s="9"/>
+      <c r="AB126" s="9">
+        <v>0</v>
+      </c>
       <c r="AC126" s="9"/>
       <c r="AD126" s="3">
         <v>0</v>
@@ -17181,7 +17420,7 @@
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC127" s="9"/>
       <c r="AD127" s="3">
@@ -17223,7 +17462,7 @@
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC128" s="9"/>
       <c r="AD128" s="3">
@@ -17292,7 +17531,9 @@
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
-      <c r="AB129" s="9"/>
+      <c r="AB129" s="9">
+        <v>17</v>
+      </c>
       <c r="AC129" s="9" t="s">
         <v>8</v>
       </c>
@@ -17334,7 +17575,9 @@
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
-      <c r="AB130" s="9"/>
+      <c r="AB130" s="9">
+        <v>2</v>
+      </c>
       <c r="AC130" s="9"/>
       <c r="AD130" s="3">
         <v>3</v>
@@ -17370,7 +17613,9 @@
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
-      <c r="AB131" s="9"/>
+      <c r="AB131" s="9">
+        <v>1</v>
+      </c>
       <c r="AC131" s="9"/>
       <c r="AD131" s="3">
         <v>1</v>
@@ -17404,7 +17649,9 @@
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
-      <c r="AB132" s="9"/>
+      <c r="AB132" s="9">
+        <v>0</v>
+      </c>
       <c r="AC132" s="9"/>
       <c r="AD132" s="3">
         <v>0</v>
@@ -17452,8 +17699,8 @@
       <c r="AA133" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AB133" s="9" t="s">
-        <v>21</v>
+      <c r="AB133" s="9">
+        <v>7</v>
       </c>
       <c r="AC133" s="9" t="s">
         <v>21</v>
@@ -17494,7 +17741,9 @@
         <v>1</v>
       </c>
       <c r="AA134" s="9"/>
-      <c r="AB134" s="9"/>
+      <c r="AB134" s="9">
+        <v>2</v>
+      </c>
       <c r="AC134" s="9">
         <v>1</v>
       </c>
@@ -17534,7 +17783,9 @@
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
-      <c r="AB135" s="9"/>
+      <c r="AB135" s="9">
+        <v>0</v>
+      </c>
       <c r="AC135" s="9"/>
       <c r="AD135" s="3">
         <v>2</v>
@@ -17570,7 +17821,9 @@
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
-      <c r="AB136" s="9"/>
+      <c r="AB136" s="9">
+        <v>1</v>
+      </c>
       <c r="AC136" s="9">
         <v>1</v>
       </c>
@@ -17618,7 +17871,9 @@
       <c r="AA137" s="9">
         <v>1</v>
       </c>
-      <c r="AB137" s="9"/>
+      <c r="AB137" s="9">
+        <v>6</v>
+      </c>
       <c r="AC137" s="9"/>
       <c r="AD137" s="3">
         <v>6</v>
@@ -17652,7 +17907,9 @@
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
-      <c r="AB138" s="9"/>
+      <c r="AB138" s="9">
+        <v>0</v>
+      </c>
       <c r="AC138" s="9"/>
       <c r="AD138" s="3">
         <v>0</v>
@@ -17690,7 +17947,9 @@
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
-      <c r="AB139" s="9"/>
+      <c r="AB139" s="9">
+        <v>2</v>
+      </c>
       <c r="AC139" s="9"/>
       <c r="AD139" s="3">
         <v>2</v>
@@ -17726,7 +17985,9 @@
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
-      <c r="AB140" s="9"/>
+      <c r="AB140" s="9">
+        <v>1</v>
+      </c>
       <c r="AC140" s="9">
         <v>1</v>
       </c>
@@ -17766,7 +18027,9 @@
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
-      <c r="AB141" s="9"/>
+      <c r="AB141" s="9">
+        <v>0</v>
+      </c>
       <c r="AC141" s="9">
         <v>1</v>
       </c>
@@ -17811,7 +18074,7 @@
         <v>1</v>
       </c>
       <c r="AB142" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC142" s="9"/>
       <c r="AD142" s="3">
@@ -17846,7 +18109,9 @@
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
-      <c r="AB143" s="9"/>
+      <c r="AB143" s="9">
+        <v>0</v>
+      </c>
       <c r="AC143" s="9"/>
       <c r="AD143" s="3">
         <v>0</v>
@@ -17884,7 +18149,9 @@
       <c r="Y144" s="9"/>
       <c r="Z144" s="9"/>
       <c r="AA144" s="9"/>
-      <c r="AB144" s="9"/>
+      <c r="AB144" s="9">
+        <v>2</v>
+      </c>
       <c r="AC144" s="9">
         <v>1</v>
       </c>
@@ -17924,7 +18191,9 @@
       <c r="Y145" s="9"/>
       <c r="Z145" s="9"/>
       <c r="AA145" s="9"/>
-      <c r="AB145" s="9"/>
+      <c r="AB145" s="9">
+        <v>2</v>
+      </c>
       <c r="AC145" s="9"/>
       <c r="AD145" s="3">
         <v>2</v>
@@ -17962,7 +18231,9 @@
       <c r="Y146" s="9"/>
       <c r="Z146" s="9"/>
       <c r="AA146" s="9"/>
-      <c r="AB146" s="9"/>
+      <c r="AB146" s="9">
+        <v>2</v>
+      </c>
       <c r="AC146" s="9"/>
       <c r="AD146" s="3">
         <v>2</v>
@@ -18000,7 +18271,9 @@
       <c r="Y147" s="9"/>
       <c r="Z147" s="9"/>
       <c r="AA147" s="9"/>
-      <c r="AB147" s="9"/>
+      <c r="AB147" s="9">
+        <v>2</v>
+      </c>
       <c r="AC147" s="9"/>
       <c r="AD147" s="3">
         <v>2</v>
@@ -18040,7 +18313,9 @@
       <c r="AA148" s="9">
         <v>1</v>
       </c>
-      <c r="AB148" s="9"/>
+      <c r="AB148" s="9">
+        <v>2</v>
+      </c>
       <c r="AC148" s="9"/>
       <c r="AD148" s="3">
         <v>3</v>
@@ -18080,7 +18355,9 @@
       <c r="Y149" s="9"/>
       <c r="Z149" s="9"/>
       <c r="AA149" s="9"/>
-      <c r="AB149" s="9"/>
+      <c r="AB149" s="9">
+        <v>3</v>
+      </c>
       <c r="AC149" s="9"/>
       <c r="AD149" s="3">
         <v>3</v>
@@ -18124,7 +18401,9 @@
       <c r="Y150" s="9"/>
       <c r="Z150" s="9"/>
       <c r="AA150" s="9"/>
-      <c r="AB150" s="9"/>
+      <c r="AB150" s="9">
+        <v>5</v>
+      </c>
       <c r="AC150" s="9"/>
       <c r="AD150" s="3">
         <v>5</v>
@@ -18158,7 +18437,9 @@
       <c r="Y151" s="9"/>
       <c r="Z151" s="9"/>
       <c r="AA151" s="9"/>
-      <c r="AB151" s="9"/>
+      <c r="AB151" s="9">
+        <v>0</v>
+      </c>
       <c r="AC151" s="9"/>
       <c r="AD151" s="3">
         <v>0</v>
@@ -18196,7 +18477,9 @@
       <c r="Y152" s="9"/>
       <c r="Z152" s="9"/>
       <c r="AA152" s="9"/>
-      <c r="AB152" s="9"/>
+      <c r="AB152" s="9">
+        <v>2</v>
+      </c>
       <c r="AC152" s="9"/>
       <c r="AD152" s="3">
         <v>2</v>
@@ -18234,7 +18517,9 @@
       <c r="Y153" s="9"/>
       <c r="Z153" s="9"/>
       <c r="AA153" s="9"/>
-      <c r="AB153" s="9"/>
+      <c r="AB153" s="9">
+        <v>2</v>
+      </c>
       <c r="AC153" s="9">
         <v>1</v>
       </c>
@@ -18278,7 +18563,9 @@
       <c r="Y154" s="9"/>
       <c r="Z154" s="9"/>
       <c r="AA154" s="9"/>
-      <c r="AB154" s="9"/>
+      <c r="AB154" s="9">
+        <v>4</v>
+      </c>
       <c r="AC154" s="9"/>
       <c r="AD154" s="3">
         <v>4</v>
@@ -18350,7 +18637,9 @@
       <c r="Y156" s="9"/>
       <c r="Z156" s="9"/>
       <c r="AA156" s="9"/>
-      <c r="AB156" s="9"/>
+      <c r="AB156" s="9">
+        <v>0</v>
+      </c>
       <c r="AC156" s="9"/>
       <c r="AD156" s="3">
         <v>0</v>
@@ -18386,7 +18675,9 @@
       <c r="Y157" s="9"/>
       <c r="Z157" s="9"/>
       <c r="AA157" s="9"/>
-      <c r="AB157" s="9"/>
+      <c r="AB157" s="9">
+        <v>1</v>
+      </c>
       <c r="AC157" s="9">
         <v>1</v>
       </c>
@@ -18417,13 +18708,17 @@
       <c r="W158" s="9"/>
       <c r="Y158" s="9"/>
       <c r="Z158" s="9"/>
-      <c r="AA158" s="9"/>
-      <c r="AB158" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC158" s="9"/>
+      <c r="AA158" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB158" s="9">
+        <v>129</v>
+      </c>
+      <c r="AC158" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD158" s="3">
-        <v>160</v>
+        <v>0.90076923076923077</v>
       </c>
       <c r="AE158" s="4" t="s">
         <v>290</v>
@@ -18466,7 +18761,9 @@
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
-      <c r="AB159" s="9"/>
+      <c r="AB159" s="9">
+        <v>3</v>
+      </c>
       <c r="AC159" s="9"/>
       <c r="AD159" s="3">
         <v>3</v>
@@ -18500,7 +18797,9 @@
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
-      <c r="AB160" s="9"/>
+      <c r="AB160" s="9">
+        <v>0</v>
+      </c>
       <c r="AC160" s="9"/>
       <c r="AD160" s="3">
         <v>0</v>
@@ -18529,13 +18828,17 @@
       <c r="W161" s="9"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
-      <c r="AA161" s="9"/>
-      <c r="AB161" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC161" s="9"/>
+      <c r="AA161" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB161" s="9">
+        <v>3</v>
+      </c>
+      <c r="AC161" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD161" s="3">
-        <v>3</v>
+        <v>0.94230769230769229</v>
       </c>
       <c r="AE161" s="4" t="s">
         <v>290</v>
@@ -18574,7 +18877,9 @@
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
-      <c r="AB162" s="9"/>
+      <c r="AB162" s="9">
+        <v>1</v>
+      </c>
       <c r="AC162" s="9"/>
       <c r="AD162" s="3">
         <v>1</v>
@@ -18608,7 +18913,9 @@
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
-      <c r="AB163" s="9"/>
+      <c r="AB163" s="9">
+        <v>0</v>
+      </c>
       <c r="AC163" s="9"/>
       <c r="AD163" s="3">
         <v>0</v>
@@ -18646,7 +18953,9 @@
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
-      <c r="AB164" s="9"/>
+      <c r="AB164" s="9">
+        <v>2</v>
+      </c>
       <c r="AC164" s="9"/>
       <c r="AD164" s="3">
         <v>2</v>
@@ -18680,7 +18989,9 @@
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
-      <c r="AB165" s="9"/>
+      <c r="AB165" s="9">
+        <v>0</v>
+      </c>
       <c r="AC165" s="9"/>
       <c r="AD165" s="3">
         <v>0</v>
@@ -18714,7 +19025,9 @@
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
-      <c r="AB166" s="9"/>
+      <c r="AB166" s="9">
+        <v>0</v>
+      </c>
       <c r="AC166" s="9"/>
       <c r="AD166" s="3">
         <v>0</v>
@@ -18748,7 +19061,9 @@
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
-      <c r="AB167" s="9"/>
+      <c r="AB167" s="9">
+        <v>0</v>
+      </c>
       <c r="AC167" s="9">
         <v>0</v>
       </c>
@@ -18784,7 +19099,9 @@
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
-      <c r="AB168" s="9"/>
+      <c r="AB168" s="9">
+        <v>0</v>
+      </c>
       <c r="AC168" s="9"/>
       <c r="AD168" s="3">
         <v>0</v>
@@ -18830,7 +19147,9 @@
       <c r="Y169" s="9"/>
       <c r="Z169" s="9"/>
       <c r="AA169" s="9"/>
-      <c r="AB169" s="9"/>
+      <c r="AB169" s="9">
+        <v>6</v>
+      </c>
       <c r="AC169" s="9"/>
       <c r="AD169" s="3">
         <v>6</v>
@@ -18872,7 +19191,9 @@
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
-      <c r="AB170" s="9"/>
+      <c r="AB170" s="9">
+        <v>4</v>
+      </c>
       <c r="AC170" s="9"/>
       <c r="AD170" s="3">
         <v>4</v>
@@ -18906,7 +19227,9 @@
       <c r="Y171" s="9"/>
       <c r="Z171" s="9"/>
       <c r="AA171" s="9"/>
-      <c r="AB171" s="9"/>
+      <c r="AB171" s="9">
+        <v>0</v>
+      </c>
       <c r="AC171" s="9"/>
       <c r="AD171" s="3">
         <v>0</v>
@@ -18944,7 +19267,9 @@
         <v>1</v>
       </c>
       <c r="AA172" s="9"/>
-      <c r="AB172" s="9"/>
+      <c r="AB172" s="9">
+        <v>2</v>
+      </c>
       <c r="AC172" s="9"/>
       <c r="AD172" s="3">
         <v>2</v>
@@ -18984,7 +19309,9 @@
       <c r="Y173" s="9"/>
       <c r="Z173" s="9"/>
       <c r="AA173" s="9"/>
-      <c r="AB173" s="9"/>
+      <c r="AB173" s="9">
+        <v>3</v>
+      </c>
       <c r="AC173" s="9"/>
       <c r="AD173" s="3">
         <v>3</v>
@@ -19013,13 +19340,17 @@
       <c r="W174" s="9"/>
       <c r="Y174" s="9"/>
       <c r="Z174" s="9"/>
-      <c r="AA174" s="9"/>
-      <c r="AB174" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC174" s="9"/>
+      <c r="AA174" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB174" s="9">
+        <v>18</v>
+      </c>
+      <c r="AC174" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD174" s="3">
-        <v>19</v>
+        <v>0.94230769230769229</v>
       </c>
       <c r="AE174" s="4" t="s">
         <v>290</v>
@@ -19058,7 +19389,9 @@
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
-      <c r="AB175" s="9"/>
+      <c r="AB175" s="9">
+        <v>0</v>
+      </c>
       <c r="AC175" s="9"/>
       <c r="AD175" s="3">
         <v>1</v>
@@ -19087,11 +19420,15 @@
       <c r="W176" s="9"/>
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
-      <c r="AA176" s="9"/>
-      <c r="AB176" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC176" s="9"/>
+      <c r="AA176" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB176" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD176" s="3">
         <v>1</v>
       </c>
@@ -19138,7 +19475,9 @@
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
-      <c r="AB177" s="9"/>
+      <c r="AB177" s="9">
+        <v>4</v>
+      </c>
       <c r="AC177" s="9"/>
       <c r="AD177" s="3">
         <v>4</v>
@@ -19172,7 +19511,9 @@
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
-      <c r="AB178" s="9"/>
+      <c r="AB178" s="9">
+        <v>0</v>
+      </c>
       <c r="AC178" s="9"/>
       <c r="AD178" s="3">
         <v>0</v>
@@ -19206,7 +19547,9 @@
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
-      <c r="AB179" s="9"/>
+      <c r="AB179" s="9">
+        <v>0</v>
+      </c>
       <c r="AC179" s="9"/>
       <c r="AD179" s="3">
         <v>0</v>
@@ -19240,7 +19583,9 @@
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
-      <c r="AB180" s="9"/>
+      <c r="AB180" s="9">
+        <v>0</v>
+      </c>
       <c r="AC180" s="9"/>
       <c r="AD180" s="3">
         <v>0</v>
@@ -19290,7 +19635,9 @@
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
-      <c r="AB181" s="9"/>
+      <c r="AB181" s="9">
+        <v>8</v>
+      </c>
       <c r="AC181" s="9"/>
       <c r="AD181" s="3">
         <v>8</v>
@@ -19324,7 +19671,9 @@
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
-      <c r="AB182" s="9"/>
+      <c r="AB182" s="9">
+        <v>0</v>
+      </c>
       <c r="AC182" s="9"/>
       <c r="AD182" s="3">
         <v>0</v>
@@ -19358,7 +19707,9 @@
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
-      <c r="AB183" s="9"/>
+      <c r="AB183" s="9">
+        <v>0</v>
+      </c>
       <c r="AC183" s="9"/>
       <c r="AD183" s="3">
         <v>0</v>
@@ -19398,7 +19749,9 @@
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
-      <c r="AB184" s="9"/>
+      <c r="AB184" s="9">
+        <v>3</v>
+      </c>
       <c r="AC184" s="9"/>
       <c r="AD184" s="3">
         <v>3</v>
@@ -19438,7 +19791,9 @@
         <v>1</v>
       </c>
       <c r="AA185" s="9"/>
-      <c r="AB185" s="9"/>
+      <c r="AB185" s="9">
+        <v>3</v>
+      </c>
       <c r="AC185" s="9"/>
       <c r="AD185" s="3">
         <v>3</v>
@@ -19474,7 +19829,9 @@
       <c r="Y186" s="9"/>
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
-      <c r="AB186" s="9"/>
+      <c r="AB186" s="9">
+        <v>0</v>
+      </c>
       <c r="AC186" s="9"/>
       <c r="AD186" s="3">
         <v>1</v>
@@ -19510,7 +19867,9 @@
       <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
-      <c r="AB187" s="9"/>
+      <c r="AB187" s="9">
+        <v>1</v>
+      </c>
       <c r="AC187" s="9">
         <v>1</v>
       </c>
@@ -19550,7 +19909,9 @@
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
-      <c r="AB188" s="9"/>
+      <c r="AB188" s="9">
+        <v>1</v>
+      </c>
       <c r="AC188" s="9"/>
       <c r="AD188" s="3">
         <v>2</v>
@@ -19584,7 +19945,9 @@
       <c r="Y189" s="9"/>
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
-      <c r="AB189" s="9"/>
+      <c r="AB189" s="9">
+        <v>0</v>
+      </c>
       <c r="AC189" s="9"/>
       <c r="AD189" s="3">
         <v>0</v>
@@ -19630,7 +19993,9 @@
       </c>
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
-      <c r="AB190" s="9"/>
+      <c r="AB190" s="9">
+        <v>6</v>
+      </c>
       <c r="AC190" s="9">
         <v>1</v>
       </c>
@@ -19666,7 +20031,9 @@
       <c r="Y191" s="9"/>
       <c r="Z191" s="9"/>
       <c r="AA191" s="9"/>
-      <c r="AB191" s="9"/>
+      <c r="AB191" s="9">
+        <v>0</v>
+      </c>
       <c r="AC191" s="9"/>
       <c r="AD191" s="3">
         <v>0</v>
@@ -19700,7 +20067,9 @@
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
-      <c r="AB192" s="9"/>
+      <c r="AB192" s="9">
+        <v>0</v>
+      </c>
       <c r="AC192" s="9"/>
       <c r="AD192" s="3">
         <v>0</v>
@@ -19736,7 +20105,9 @@
       <c r="AA193" s="9">
         <v>1</v>
       </c>
-      <c r="AB193" s="9"/>
+      <c r="AB193" s="9">
+        <v>1</v>
+      </c>
       <c r="AC193" s="9"/>
       <c r="AD193" s="3">
         <v>1</v>
@@ -19770,7 +20141,9 @@
       <c r="Y194" s="9"/>
       <c r="Z194" s="9"/>
       <c r="AA194" s="9"/>
-      <c r="AB194" s="9"/>
+      <c r="AB194" s="9">
+        <v>0</v>
+      </c>
       <c r="AC194" s="9"/>
       <c r="AD194" s="3">
         <v>0</v>
@@ -19812,7 +20185,9 @@
         <v>1</v>
       </c>
       <c r="AA195" s="9"/>
-      <c r="AB195" s="9"/>
+      <c r="AB195" s="9">
+        <v>4</v>
+      </c>
       <c r="AC195" s="9"/>
       <c r="AD195" s="3">
         <v>4</v>
@@ -19848,7 +20223,9 @@
       <c r="Y196" s="9"/>
       <c r="Z196" s="9"/>
       <c r="AA196" s="9"/>
-      <c r="AB196" s="9"/>
+      <c r="AB196" s="9">
+        <v>1</v>
+      </c>
       <c r="AC196" s="9"/>
       <c r="AD196" s="3">
         <v>1</v>
@@ -19888,7 +20265,9 @@
         <v>1</v>
       </c>
       <c r="AA197" s="9"/>
-      <c r="AB197" s="9"/>
+      <c r="AB197" s="9">
+        <v>3</v>
+      </c>
       <c r="AC197" s="9" t="s">
         <v>8</v>
       </c>
@@ -19926,7 +20305,9 @@
       <c r="Y198" s="9"/>
       <c r="Z198" s="9"/>
       <c r="AA198" s="9"/>
-      <c r="AB198" s="9"/>
+      <c r="AB198" s="9">
+        <v>1</v>
+      </c>
       <c r="AC198" s="9">
         <v>1</v>
       </c>
@@ -19962,7 +20343,9 @@
       <c r="Y199" s="9"/>
       <c r="Z199" s="9"/>
       <c r="AA199" s="9"/>
-      <c r="AB199" s="9"/>
+      <c r="AB199" s="9">
+        <v>0</v>
+      </c>
       <c r="AC199" s="9"/>
       <c r="AD199" s="3">
         <v>0</v>
@@ -19998,7 +20381,9 @@
       <c r="Y200" s="9"/>
       <c r="Z200" s="9"/>
       <c r="AA200" s="9"/>
-      <c r="AB200" s="9"/>
+      <c r="AB200" s="9">
+        <v>1</v>
+      </c>
       <c r="AC200" s="9"/>
       <c r="AD200" s="3">
         <v>1</v>
@@ -20027,13 +20412,17 @@
       <c r="W201" s="9"/>
       <c r="Y201" s="9"/>
       <c r="Z201" s="9"/>
-      <c r="AA201" s="9"/>
-      <c r="AB201" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC201" s="9"/>
+      <c r="AA201" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB201" s="9">
+        <v>37</v>
+      </c>
+      <c r="AC201" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD201" s="3">
-        <v>43</v>
+        <v>0.94070512820512819</v>
       </c>
       <c r="AE201" s="4" t="s">
         <v>290</v>
@@ -20074,7 +20463,9 @@
       <c r="Y202" s="9"/>
       <c r="Z202" s="9"/>
       <c r="AA202" s="9"/>
-      <c r="AB202" s="9"/>
+      <c r="AB202" s="9">
+        <v>2</v>
+      </c>
       <c r="AC202" s="9"/>
       <c r="AD202" s="3">
         <v>2</v>
@@ -20108,7 +20499,9 @@
       <c r="Y203" s="9"/>
       <c r="Z203" s="9"/>
       <c r="AA203" s="9"/>
-      <c r="AB203" s="9"/>
+      <c r="AB203" s="9">
+        <v>0</v>
+      </c>
       <c r="AC203" s="9"/>
       <c r="AD203" s="3">
         <v>0</v>
@@ -20137,13 +20530,17 @@
       <c r="W204" s="9"/>
       <c r="Y204" s="9"/>
       <c r="Z204" s="9"/>
-      <c r="AA204" s="9"/>
-      <c r="AB204" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC204" s="9"/>
+      <c r="AA204" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB204" s="9">
+        <v>2</v>
+      </c>
+      <c r="AC204" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD204" s="3">
-        <v>2</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="AE204" s="4" t="s">
         <v>290</v>
@@ -20182,7 +20579,9 @@
       <c r="Y205" s="9"/>
       <c r="Z205" s="9"/>
       <c r="AA205" s="9"/>
-      <c r="AB205" s="9"/>
+      <c r="AB205" s="9">
+        <v>1</v>
+      </c>
       <c r="AC205" s="9"/>
       <c r="AD205" s="3">
         <v>1</v>
@@ -20218,7 +20617,9 @@
       <c r="Y206" s="9"/>
       <c r="Z206" s="9"/>
       <c r="AA206" s="9"/>
-      <c r="AB206" s="9"/>
+      <c r="AB206" s="9">
+        <v>1</v>
+      </c>
       <c r="AC206" s="9"/>
       <c r="AD206" s="3">
         <v>1</v>
@@ -20256,7 +20657,9 @@
       <c r="Y207" s="9"/>
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
-      <c r="AB207" s="9"/>
+      <c r="AB207" s="9">
+        <v>0</v>
+      </c>
       <c r="AC207" s="9"/>
       <c r="AD207" s="3">
         <v>2</v>
@@ -20290,7 +20693,9 @@
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
-      <c r="AB208" s="9"/>
+      <c r="AB208" s="9">
+        <v>0</v>
+      </c>
       <c r="AC208" s="9"/>
       <c r="AD208" s="3">
         <v>0</v>
@@ -20326,7 +20731,9 @@
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
-      <c r="AB209" s="9"/>
+      <c r="AB209" s="9">
+        <v>0</v>
+      </c>
       <c r="AC209" s="9"/>
       <c r="AD209" s="3">
         <v>1</v>
@@ -20360,7 +20767,9 @@
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
-      <c r="AB210" s="9"/>
+      <c r="AB210" s="9">
+        <v>0</v>
+      </c>
       <c r="AC210" s="9"/>
       <c r="AD210" s="3">
         <v>0</v>
@@ -20396,7 +20805,9 @@
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
       <c r="AA211" s="9"/>
-      <c r="AB211" s="9"/>
+      <c r="AB211" s="9">
+        <v>1</v>
+      </c>
       <c r="AC211" s="9"/>
       <c r="AD211" s="3">
         <v>1</v>
@@ -20430,7 +20841,9 @@
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
-      <c r="AB212" s="9"/>
+      <c r="AB212" s="9">
+        <v>0</v>
+      </c>
       <c r="AC212" s="9"/>
       <c r="AD212" s="3">
         <v>0</v>
@@ -20497,13 +20910,17 @@
       <c r="W214" s="9"/>
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
-      <c r="AA214" s="9"/>
-      <c r="AB214" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC214" s="9"/>
+      <c r="AA214" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB214" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC214" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD214" s="3">
-        <v>8</v>
+        <v>0.98290598290598286</v>
       </c>
       <c r="AE214" s="4" t="s">
         <v>290</v>
@@ -20542,7 +20959,9 @@
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
       <c r="AA215" s="9"/>
-      <c r="AB215" s="9"/>
+      <c r="AB215" s="9">
+        <v>1</v>
+      </c>
       <c r="AC215" s="9"/>
       <c r="AD215" s="3">
         <v>1</v>
@@ -20576,7 +20995,9 @@
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
-      <c r="AB216" s="9"/>
+      <c r="AB216" s="9">
+        <v>0</v>
+      </c>
       <c r="AC216" s="9"/>
       <c r="AD216" s="3">
         <v>0</v>
@@ -20605,13 +21026,17 @@
       <c r="W217" s="9"/>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
-      <c r="AA217" s="9"/>
-      <c r="AB217" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC217" s="9"/>
+      <c r="AA217" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB217" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC217" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD217" s="3">
-        <v>1</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="AE217" s="4" t="s">
         <v>290</v>
@@ -20654,7 +21079,9 @@
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
-      <c r="AB218" s="9"/>
+      <c r="AB218" s="9">
+        <v>3</v>
+      </c>
       <c r="AC218" s="9"/>
       <c r="AD218" s="3">
         <v>3</v>
@@ -20688,7 +21115,9 @@
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
-      <c r="AB219" s="9"/>
+      <c r="AB219" s="9">
+        <v>0</v>
+      </c>
       <c r="AC219" s="9">
         <v>1</v>
       </c>
@@ -20726,7 +21155,9 @@
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
-      <c r="AB220" s="9"/>
+      <c r="AB220" s="9">
+        <v>0</v>
+      </c>
       <c r="AC220" s="9"/>
       <c r="AD220" s="3">
         <v>1</v>
@@ -20760,7 +21191,9 @@
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
-      <c r="AB221" s="9"/>
+      <c r="AB221" s="9">
+        <v>0</v>
+      </c>
       <c r="AC221" s="9">
         <v>0</v>
       </c>
@@ -20800,7 +21233,9 @@
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
-      <c r="AB222" s="9"/>
+      <c r="AB222" s="9">
+        <v>1</v>
+      </c>
       <c r="AC222" s="9"/>
       <c r="AD222" s="3">
         <v>2</v>
@@ -20836,7 +21271,9 @@
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
-      <c r="AB223" s="9"/>
+      <c r="AB223" s="9">
+        <v>0</v>
+      </c>
       <c r="AC223" s="9"/>
       <c r="AD223" s="3">
         <v>1</v>
@@ -20874,7 +21311,9 @@
       <c r="AA224" s="9">
         <v>1</v>
       </c>
-      <c r="AB224" s="9"/>
+      <c r="AB224" s="9">
+        <v>2</v>
+      </c>
       <c r="AC224" s="9">
         <v>0</v>
       </c>
@@ -20914,7 +21353,9 @@
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
-      <c r="AB225" s="9"/>
+      <c r="AB225" s="9">
+        <v>0</v>
+      </c>
       <c r="AC225" s="9"/>
       <c r="AD225" s="3">
         <v>2</v>
@@ -20956,7 +21397,9 @@
       </c>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
-      <c r="AB226" s="9"/>
+      <c r="AB226" s="9">
+        <v>4</v>
+      </c>
       <c r="AC226" s="9">
         <v>1</v>
       </c>
@@ -20994,7 +21437,9 @@
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
-      <c r="AB227" s="9"/>
+      <c r="AB227" s="9">
+        <v>1</v>
+      </c>
       <c r="AC227" s="9"/>
       <c r="AD227" s="3">
         <v>1</v>
@@ -21032,7 +21477,9 @@
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
-      <c r="AB228" s="9"/>
+      <c r="AB228" s="9">
+        <v>2</v>
+      </c>
       <c r="AC228" s="9"/>
       <c r="AD228" s="3">
         <v>2</v>
@@ -21070,7 +21517,9 @@
       <c r="Y229" s="9"/>
       <c r="Z229" s="9"/>
       <c r="AA229" s="9"/>
-      <c r="AB229" s="9"/>
+      <c r="AB229" s="9">
+        <v>1</v>
+      </c>
       <c r="AC229" s="9"/>
       <c r="AD229" s="3">
         <v>2</v>
@@ -21110,7 +21559,9 @@
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
-      <c r="AB230" s="9"/>
+      <c r="AB230" s="9">
+        <v>1</v>
+      </c>
       <c r="AC230" s="9"/>
       <c r="AD230" s="3">
         <v>3</v>
@@ -21154,7 +21605,9 @@
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
       <c r="AA231" s="9"/>
-      <c r="AB231" s="9"/>
+      <c r="AB231" s="9">
+        <v>0</v>
+      </c>
       <c r="AC231" s="9">
         <v>1</v>
       </c>
@@ -21194,7 +21647,9 @@
       <c r="Y232" s="9"/>
       <c r="Z232" s="9"/>
       <c r="AA232" s="9"/>
-      <c r="AB232" s="9"/>
+      <c r="AB232" s="9">
+        <v>2</v>
+      </c>
       <c r="AC232" s="9"/>
       <c r="AD232" s="3">
         <v>2</v>
@@ -21232,7 +21687,9 @@
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
       <c r="AA233" s="9"/>
-      <c r="AB233" s="9"/>
+      <c r="AB233" s="9">
+        <v>2</v>
+      </c>
       <c r="AC233" s="9">
         <v>1</v>
       </c>
@@ -21263,13 +21720,17 @@
       <c r="W234" s="9"/>
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
-      <c r="AA234" s="9"/>
-      <c r="AB234" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC234" s="9"/>
+      <c r="AA234" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB234" s="9">
+        <v>19</v>
+      </c>
+      <c r="AC234" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD234" s="3">
-        <v>38</v>
+        <v>0.95432692307692313</v>
       </c>
       <c r="AE234" s="4" t="s">
         <v>290</v>
@@ -21306,7 +21767,9 @@
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
-      <c r="AB235" s="9"/>
+      <c r="AB235" s="9">
+        <v>0</v>
+      </c>
       <c r="AC235" s="9"/>
       <c r="AD235" s="3">
         <v>0</v>
@@ -21335,13 +21798,17 @@
       <c r="W236" s="9"/>
       <c r="Y236" s="9"/>
       <c r="Z236" s="9"/>
-      <c r="AA236" s="9"/>
-      <c r="AB236" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC236" s="9"/>
+      <c r="AA236" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB236" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC236" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD236" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE236" s="4" t="s">
         <v>290</v>
@@ -21394,7 +21861,9 @@
       <c r="Y237" s="9"/>
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
-      <c r="AB237" s="9"/>
+      <c r="AB237" s="9">
+        <v>8</v>
+      </c>
       <c r="AC237" s="9"/>
       <c r="AD237" s="3">
         <v>8</v>
@@ -21434,7 +21903,9 @@
       <c r="Y238" s="9"/>
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
-      <c r="AB238" s="9"/>
+      <c r="AB238" s="9">
+        <v>3</v>
+      </c>
       <c r="AC238" s="9">
         <v>0</v>
       </c>
@@ -21480,7 +21951,9 @@
         <v>0</v>
       </c>
       <c r="AA239" s="9"/>
-      <c r="AB239" s="9"/>
+      <c r="AB239" s="9">
+        <v>3</v>
+      </c>
       <c r="AC239" s="9"/>
       <c r="AD239" s="3">
         <v>5</v>
@@ -21516,13 +21989,15 @@
       <c r="Y240" s="9"/>
       <c r="Z240" s="9"/>
       <c r="AA240" s="9"/>
-      <c r="AB240" s="9"/>
+      <c r="AB240" s="9">
+        <v>1</v>
+      </c>
       <c r="AC240" s="9"/>
       <c r="AD240" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A241" s="8" t="s">
         <v>259</v>
       </c>
@@ -21560,7 +22035,9 @@
       <c r="Y241" s="9"/>
       <c r="Z241" s="9"/>
       <c r="AA241" s="9"/>
-      <c r="AB241" s="9"/>
+      <c r="AB241" s="9">
+        <v>4</v>
+      </c>
       <c r="AC241" s="9">
         <v>0</v>
       </c>
@@ -21568,7 +22045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A242" s="8" t="s">
         <v>259</v>
       </c>
@@ -21596,7 +22073,9 @@
       <c r="Y242" s="9"/>
       <c r="Z242" s="9"/>
       <c r="AA242" s="9"/>
-      <c r="AB242" s="9"/>
+      <c r="AB242" s="9">
+        <v>0</v>
+      </c>
       <c r="AC242" s="9">
         <v>0</v>
       </c>
@@ -21604,7 +22083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A243" s="8" t="s">
         <v>259</v>
       </c>
@@ -21640,13 +22119,15 @@
         <v>0</v>
       </c>
       <c r="AA243" s="9"/>
-      <c r="AB243" s="9"/>
+      <c r="AB243" s="9">
+        <v>3</v>
+      </c>
       <c r="AC243" s="9"/>
       <c r="AD243" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A244" s="8" t="s">
         <v>259</v>
       </c>
@@ -21684,7 +22165,9 @@
       <c r="AA244" s="9">
         <v>1</v>
       </c>
-      <c r="AB244" s="9"/>
+      <c r="AB244" s="9">
+        <v>5</v>
+      </c>
       <c r="AC244" s="9">
         <v>0</v>
       </c>
@@ -21692,7 +22175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A245" s="8" t="s">
         <v>259</v>
       </c>
@@ -21724,13 +22207,15 @@
       <c r="AA245" s="9">
         <v>1</v>
       </c>
-      <c r="AB245" s="9"/>
+      <c r="AB245" s="9">
+        <v>2</v>
+      </c>
       <c r="AC245" s="9"/>
       <c r="AD245" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A246" s="8" t="s">
         <v>259</v>
       </c>
@@ -21768,7 +22253,9 @@
         <v>0</v>
       </c>
       <c r="AA246" s="9"/>
-      <c r="AB246" s="9"/>
+      <c r="AB246" s="9">
+        <v>4</v>
+      </c>
       <c r="AC246" s="9">
         <v>0</v>
       </c>
@@ -21776,7 +22263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="9"/>
@@ -21799,13 +22286,17 @@
       <c r="W247" s="9"/>
       <c r="Y247" s="9"/>
       <c r="Z247" s="9"/>
-      <c r="AA247" s="9"/>
-      <c r="AB247" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC247" s="9"/>
+      <c r="AA247" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB247" s="9">
+        <v>33</v>
+      </c>
+      <c r="AC247" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="AD247" s="3">
-        <v>43</v>
+        <v>0.87307692307692308</v>
       </c>
       <c r="AE247" s="4" t="s">
         <v>290</v>
@@ -21814,7 +22305,7 @@
         <v>0.82799999999999996</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A248" s="8" t="s">
         <v>270</v>
       </c>
@@ -21853,14 +22344,14 @@
       </c>
       <c r="AA248" s="9"/>
       <c r="AB248" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC248" s="9"/>
       <c r="AD248" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A249" s="8" t="s">
         <v>270</v>
       </c>
@@ -21892,13 +22383,15 @@
       <c r="Y249" s="9"/>
       <c r="Z249" s="9"/>
       <c r="AA249" s="9"/>
-      <c r="AB249" s="9"/>
+      <c r="AB249" s="9">
+        <v>0</v>
+      </c>
       <c r="AC249" s="9"/>
       <c r="AD249" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A250" s="8" t="s">
         <v>270</v>
       </c>
@@ -21926,13 +22419,15 @@
       <c r="Y250" s="9"/>
       <c r="Z250" s="9"/>
       <c r="AA250" s="9"/>
-      <c r="AB250" s="9"/>
+      <c r="AB250" s="9">
+        <v>0</v>
+      </c>
       <c r="AC250" s="9"/>
       <c r="AD250" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A251" s="8" t="s">
         <v>270</v>
       </c>
@@ -21968,13 +22463,15 @@
       <c r="Y251" s="9"/>
       <c r="Z251" s="9"/>
       <c r="AA251" s="9"/>
-      <c r="AB251" s="9"/>
+      <c r="AB251" s="9">
+        <v>0</v>
+      </c>
       <c r="AC251" s="9"/>
       <c r="AD251" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A252" s="8" t="s">
         <v>270</v>
       </c>
@@ -22015,14 +22512,14 @@
       <c r="Z252" s="9"/>
       <c r="AA252" s="9"/>
       <c r="AB252" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC252" s="9"/>
       <c r="AD252" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A253" s="8" t="s">
         <v>270</v>
       </c>
@@ -22054,28 +22551,35 @@
       </c>
       <c r="Z253" s="9"/>
       <c r="AA253" s="9"/>
-      <c r="AB253" s="9"/>
+      <c r="AB253" s="9">
+        <v>2</v>
+      </c>
       <c r="AC253" s="9"/>
       <c r="AD253" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.15">
-      <c r="AB254" s="3" t="s">
-        <v>289</v>
+    <row r="254" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AA254" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB254" s="3">
+        <v>7</v>
+      </c>
+      <c r="AC254" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="AD254" s="3">
-        <v>21</v>
+        <v>0.95512820512820518</v>
       </c>
       <c r="AE254" s="4" t="s">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="AF254" s="54">
         <v>0.86</v>
       </c>
-      <c r="AG254" s="55"/>
-    </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.15">
+    </row>
+    <row r="256" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A256" s="26" t="s">
         <v>274</v>
       </c>
@@ -22111,159 +22615,158 @@
       <c r="AE256" s="27"/>
       <c r="AF256" s="28"/>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A257" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="B257" s="57" t="s">
+      <c r="B257" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="C257" s="56"/>
+      <c r="D257" s="56"/>
+      <c r="E257" s="56"/>
+      <c r="F257" s="56"/>
+      <c r="G257" s="56"/>
+      <c r="H257" s="56"/>
+      <c r="I257" s="56"/>
+      <c r="J257" s="56"/>
+      <c r="K257" s="56"/>
+      <c r="L257" s="56"/>
+      <c r="M257" s="56"/>
+      <c r="N257" s="56"/>
+      <c r="O257" s="56"/>
+      <c r="P257" s="56"/>
+      <c r="Q257" s="56"/>
+      <c r="R257" s="56"/>
+      <c r="S257" s="56"/>
+      <c r="T257" s="56"/>
+      <c r="U257" s="56"/>
+      <c r="V257" s="56"/>
+      <c r="W257" s="56"/>
+      <c r="X257" s="56"/>
+      <c r="Y257" s="56"/>
+      <c r="Z257" s="56"/>
+      <c r="AA257" s="56"/>
+      <c r="AB257" s="56"/>
+      <c r="AC257" s="56"/>
+      <c r="AD257" s="56"/>
+      <c r="AE257" s="56"/>
+      <c r="AF257" s="56"/>
+    </row>
+    <row r="258" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A258" s="57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B258" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C258" s="56"/>
+      <c r="D258" s="56"/>
+      <c r="E258" s="56"/>
+      <c r="F258" s="56"/>
+      <c r="G258" s="56"/>
+      <c r="H258" s="56"/>
+      <c r="I258" s="56"/>
+      <c r="J258" s="56"/>
+      <c r="K258" s="56"/>
+      <c r="L258" s="56"/>
+      <c r="M258" s="56"/>
+      <c r="N258" s="56"/>
+      <c r="O258" s="56"/>
+      <c r="P258" s="56"/>
+      <c r="Q258" s="56"/>
+      <c r="R258" s="56"/>
+      <c r="S258" s="56"/>
+      <c r="T258" s="56"/>
+      <c r="U258" s="56"/>
+      <c r="V258" s="56"/>
+      <c r="W258" s="56"/>
+      <c r="X258" s="56"/>
+      <c r="Y258" s="56"/>
+      <c r="Z258" s="56"/>
+      <c r="AA258" s="56"/>
+      <c r="AB258" s="56"/>
+      <c r="AC258" s="56"/>
+      <c r="AD258" s="56"/>
+      <c r="AE258" s="56"/>
+      <c r="AF258" s="56"/>
+    </row>
+    <row r="259" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A259" s="57"/>
+      <c r="B259" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="C257" s="57"/>
-      <c r="D257" s="57"/>
-      <c r="E257" s="57"/>
-      <c r="F257" s="57"/>
-      <c r="G257" s="57"/>
-      <c r="H257" s="57"/>
-      <c r="I257" s="57"/>
-      <c r="J257" s="57"/>
-      <c r="K257" s="57"/>
-      <c r="L257" s="57"/>
-      <c r="M257" s="57"/>
-      <c r="N257" s="57"/>
-      <c r="O257" s="57"/>
-      <c r="P257" s="57"/>
-      <c r="Q257" s="57"/>
-      <c r="R257" s="57"/>
-      <c r="S257" s="57"/>
-      <c r="T257" s="57"/>
-      <c r="U257" s="57"/>
-      <c r="V257" s="57"/>
-      <c r="W257" s="57"/>
-      <c r="X257" s="57"/>
-      <c r="Y257" s="57"/>
-      <c r="Z257" s="57"/>
-      <c r="AA257" s="57"/>
-      <c r="AB257" s="57"/>
-      <c r="AC257" s="57"/>
-      <c r="AD257" s="57"/>
-      <c r="AE257" s="57"/>
-      <c r="AF257" s="57"/>
-      <c r="AH257"/>
-    </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A258" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="B258" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="C258" s="57"/>
-      <c r="D258" s="57"/>
-      <c r="E258" s="57"/>
-      <c r="F258" s="57"/>
-      <c r="G258" s="57"/>
-      <c r="H258" s="57"/>
-      <c r="I258" s="57"/>
-      <c r="J258" s="57"/>
-      <c r="K258" s="57"/>
-      <c r="L258" s="57"/>
-      <c r="M258" s="57"/>
-      <c r="N258" s="57"/>
-      <c r="O258" s="57"/>
-      <c r="P258" s="57"/>
-      <c r="Q258" s="57"/>
-      <c r="R258" s="57"/>
-      <c r="S258" s="57"/>
-      <c r="T258" s="57"/>
-      <c r="U258" s="57"/>
-      <c r="V258" s="57"/>
-      <c r="W258" s="57"/>
-      <c r="X258" s="57"/>
-      <c r="Y258" s="57"/>
-      <c r="Z258" s="57"/>
-      <c r="AA258" s="57"/>
-      <c r="AB258" s="57"/>
-      <c r="AC258" s="57"/>
-      <c r="AD258" s="57"/>
-      <c r="AE258" s="57"/>
-      <c r="AF258" s="57"/>
-    </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A259" s="58"/>
-      <c r="B259" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="C259" s="57"/>
-      <c r="D259" s="57"/>
-      <c r="E259" s="57"/>
-      <c r="F259" s="57"/>
-      <c r="G259" s="57"/>
-      <c r="H259" s="57"/>
-      <c r="I259" s="57"/>
-      <c r="J259" s="57"/>
-      <c r="K259" s="57"/>
-      <c r="L259" s="57"/>
-      <c r="M259" s="57"/>
-      <c r="N259" s="57"/>
-      <c r="O259" s="57"/>
-      <c r="P259" s="57"/>
-      <c r="Q259" s="57"/>
-      <c r="R259" s="57"/>
-      <c r="S259" s="57"/>
-      <c r="T259" s="57"/>
-      <c r="U259" s="57"/>
-      <c r="V259" s="57"/>
-      <c r="W259" s="57"/>
-      <c r="X259" s="57"/>
-      <c r="Y259" s="57"/>
-      <c r="Z259" s="57"/>
-      <c r="AA259" s="57"/>
-      <c r="AB259" s="57"/>
-      <c r="AC259" s="57"/>
-      <c r="AD259" s="57"/>
-      <c r="AE259" s="57"/>
-      <c r="AF259" s="57"/>
-    </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="C259" s="56"/>
+      <c r="D259" s="56"/>
+      <c r="E259" s="56"/>
+      <c r="F259" s="56"/>
+      <c r="G259" s="56"/>
+      <c r="H259" s="56"/>
+      <c r="I259" s="56"/>
+      <c r="J259" s="56"/>
+      <c r="K259" s="56"/>
+      <c r="L259" s="56"/>
+      <c r="M259" s="56"/>
+      <c r="N259" s="56"/>
+      <c r="O259" s="56"/>
+      <c r="P259" s="56"/>
+      <c r="Q259" s="56"/>
+      <c r="R259" s="56"/>
+      <c r="S259" s="56"/>
+      <c r="T259" s="56"/>
+      <c r="U259" s="56"/>
+      <c r="V259" s="56"/>
+      <c r="W259" s="56"/>
+      <c r="X259" s="56"/>
+      <c r="Y259" s="56"/>
+      <c r="Z259" s="56"/>
+      <c r="AA259" s="56"/>
+      <c r="AB259" s="56"/>
+      <c r="AC259" s="56"/>
+      <c r="AD259" s="56"/>
+      <c r="AE259" s="56"/>
+      <c r="AF259" s="56"/>
+    </row>
+    <row r="260" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A260" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="B260" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="C260" s="57"/>
-      <c r="D260" s="57"/>
-      <c r="E260" s="57"/>
-      <c r="F260" s="57"/>
-      <c r="G260" s="57"/>
-      <c r="H260" s="57"/>
-      <c r="I260" s="57"/>
-      <c r="J260" s="57"/>
-      <c r="K260" s="57"/>
-      <c r="L260" s="57"/>
-      <c r="M260" s="57"/>
-      <c r="N260" s="57"/>
-      <c r="O260" s="57"/>
-      <c r="P260" s="57"/>
-      <c r="Q260" s="57"/>
-      <c r="R260" s="57"/>
-      <c r="S260" s="57"/>
-      <c r="T260" s="57"/>
-      <c r="U260" s="57"/>
-      <c r="V260" s="57"/>
-      <c r="W260" s="57"/>
-      <c r="X260" s="57"/>
-      <c r="Y260" s="57"/>
-      <c r="Z260" s="57"/>
-      <c r="AA260" s="57"/>
-      <c r="AB260" s="57"/>
-      <c r="AC260" s="57"/>
-      <c r="AD260" s="57"/>
-      <c r="AE260" s="57"/>
-      <c r="AF260" s="57"/>
+      <c r="B260" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C260" s="56"/>
+      <c r="D260" s="56"/>
+      <c r="E260" s="56"/>
+      <c r="F260" s="56"/>
+      <c r="G260" s="56"/>
+      <c r="H260" s="56"/>
+      <c r="I260" s="56"/>
+      <c r="J260" s="56"/>
+      <c r="K260" s="56"/>
+      <c r="L260" s="56"/>
+      <c r="M260" s="56"/>
+      <c r="N260" s="56"/>
+      <c r="O260" s="56"/>
+      <c r="P260" s="56"/>
+      <c r="Q260" s="56"/>
+      <c r="R260" s="56"/>
+      <c r="S260" s="56"/>
+      <c r="T260" s="56"/>
+      <c r="U260" s="56"/>
+      <c r="V260" s="56"/>
+      <c r="W260" s="56"/>
+      <c r="X260" s="56"/>
+      <c r="Y260" s="56"/>
+      <c r="Z260" s="56"/>
+      <c r="AA260" s="56"/>
+      <c r="AB260" s="56"/>
+      <c r="AC260" s="56"/>
+      <c r="AD260" s="56"/>
+      <c r="AE260" s="56"/>
+      <c r="AF260" s="56"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG249">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF249">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="5">
